--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>SNDL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,38 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43159</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42794</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,41 +706,47 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>40800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -760,14 +766,17 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>14300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,20 +813,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,23 +870,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>101800</v>
       </c>
       <c r="E14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -881,24 +900,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,22 +944,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20800</v>
+        <v>222000</v>
       </c>
       <c r="E17" s="3">
-        <v>9700</v>
+        <v>20100</v>
       </c>
       <c r="F17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -945,20 +971,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
+      <c r="D18" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -972,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,19 +1018,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1012,20 +1045,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>700</v>
-      </c>
-      <c r="E21" s="3">
-        <v>300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
+        <v>-176300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1039,23 +1075,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21700</v>
+        <v>17400</v>
       </c>
       <c r="E22" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1066,23 +1105,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42600</v>
+        <v>-200800</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1093,36 +1135,42 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-3400</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,23 +1195,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42600</v>
+        <v>-197400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1174,23 +1225,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42600</v>
+        <v>-197300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1201,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,20 +1375,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1336,23 +1405,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42600</v>
+        <v>-197300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1363,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,23 +1465,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42600</v>
+        <v>-197300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1417,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43159</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42794</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,22 +1561,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10600</v>
+        <v>32900</v>
       </c>
       <c r="E41" s="3">
-        <v>5800</v>
+        <v>10300</v>
       </c>
       <c r="F41" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1502,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,24 +1618,27 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2100</v>
+        <v>20100</v>
       </c>
       <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,23 +1648,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>53900</v>
       </c>
       <c r="E44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1583,24 +1678,27 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>18400</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,23 +1708,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16300</v>
+        <v>125400</v>
       </c>
       <c r="E46" s="3">
-        <v>6700</v>
+        <v>15800</v>
       </c>
       <c r="F46" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1637,9 +1738,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1664,23 +1768,26 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66600</v>
+        <v>204800</v>
       </c>
       <c r="E48" s="3">
-        <v>9900</v>
+        <v>64300</v>
       </c>
       <c r="F48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>9500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1691,23 +1798,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>40300</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1718,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,23 +1888,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,23 +1948,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83000</v>
+        <v>370400</v>
       </c>
       <c r="E54" s="3">
-        <v>19400</v>
+        <v>80000</v>
       </c>
       <c r="F54" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,23 +2009,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="E57" s="3">
-        <v>3700</v>
+        <v>14000</v>
       </c>
       <c r="F57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,23 +2036,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37900</v>
+        <v>129700</v>
       </c>
       <c r="E58" s="3">
-        <v>5300</v>
+        <v>36600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1933,51 +2066,57 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>51100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52400</v>
+        <v>195500</v>
       </c>
       <c r="E60" s="3">
-        <v>9000</v>
+        <v>50600</v>
       </c>
       <c r="F60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,21 +2126,24 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36500</v>
+        <v>11800</v>
       </c>
       <c r="E61" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2014,36 +2156,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,23 +2276,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88900</v>
+        <v>213200</v>
       </c>
       <c r="E66" s="3">
-        <v>9100</v>
+        <v>85800</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,23 +2440,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-64600</v>
+        <v>-241500</v>
       </c>
       <c r="E72" s="3">
-        <v>-12500</v>
+        <v>-62300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-12100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,23 +2560,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6000</v>
+        <v>157200</v>
       </c>
       <c r="E76" s="3">
-        <v>10300</v>
+        <v>-5700</v>
       </c>
       <c r="F76" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>8400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43159</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42794</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,23 +2655,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42600</v>
+        <v>-197300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9800</v>
+        <v>-41100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2491,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,23 +2702,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,23 +2879,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-19100</v>
+        <v>-81900</v>
       </c>
       <c r="E89" s="3">
-        <v>-3900</v>
+        <v>-18500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2693,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,22 +2926,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57500</v>
+        <v>-100400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-55500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-5500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,23 +3013,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49700</v>
+        <v>-154900</v>
       </c>
       <c r="E94" s="3">
-        <v>-7300</v>
+        <v>-48000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2814,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,23 +3177,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73700</v>
+        <v>260300</v>
       </c>
       <c r="E100" s="3">
-        <v>14200</v>
+        <v>71100</v>
       </c>
       <c r="F100" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>6300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2962,50 +3207,56 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4800</v>
+        <v>22700</v>
       </c>
       <c r="E102" s="3">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="F102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3016,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40800</v>
+        <v>42700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -880,13 +880,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>101800</v>
+        <v>106600</v>
       </c>
       <c r="E14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
         <v>700</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>222000</v>
+        <v>232500</v>
       </c>
       <c r="E17" s="3">
-        <v>20100</v>
+        <v>21100</v>
       </c>
       <c r="F17" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-166800</v>
+        <v>-174700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16500</v>
+        <v>-17300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-176300</v>
+        <v>-184600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1085,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17400</v>
+        <v>18200</v>
       </c>
       <c r="E22" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200800</v>
+        <v>-210300</v>
       </c>
       <c r="E23" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F23" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-197400</v>
+        <v>-206700</v>
       </c>
       <c r="E26" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F26" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-197300</v>
+        <v>-206600</v>
       </c>
       <c r="E27" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F27" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-197300</v>
+        <v>-206600</v>
       </c>
       <c r="E33" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F33" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-197300</v>
+        <v>-206600</v>
       </c>
       <c r="E35" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F35" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1568,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32900</v>
+        <v>34500</v>
       </c>
       <c r="E41" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F41" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G41" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1628,10 +1628,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="E43" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -1658,10 +1658,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>53900</v>
+        <v>56500</v>
       </c>
       <c r="E44" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -1688,13 +1688,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="E45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -1718,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125400</v>
+        <v>131400</v>
       </c>
       <c r="E46" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="F46" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="G46" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>204800</v>
+        <v>214600</v>
       </c>
       <c r="E48" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="F48" s="3">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1808,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40300</v>
+        <v>42200</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>370400</v>
+        <v>388200</v>
       </c>
       <c r="E54" s="3">
-        <v>80000</v>
+        <v>83900</v>
       </c>
       <c r="F54" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="G54" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14700</v>
       </c>
-      <c r="E57" s="3">
-        <v>14000</v>
-      </c>
       <c r="F57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2046,13 +2046,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129700</v>
+        <v>136000</v>
       </c>
       <c r="E58" s="3">
-        <v>36600</v>
+        <v>38300</v>
       </c>
       <c r="F58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51100</v>
+        <v>53600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>195500</v>
+        <v>204900</v>
       </c>
       <c r="E60" s="3">
-        <v>50600</v>
+        <v>53000</v>
       </c>
       <c r="F60" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="E61" s="3">
-        <v>35200</v>
+        <v>36900</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2166,7 +2166,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2286,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>213200</v>
+        <v>223400</v>
       </c>
       <c r="E66" s="3">
-        <v>85800</v>
+        <v>89900</v>
       </c>
       <c r="F66" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2450,16 +2450,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-241500</v>
+        <v>-253100</v>
       </c>
       <c r="E72" s="3">
-        <v>-62300</v>
+        <v>-65300</v>
       </c>
       <c r="F72" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2570,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>157200</v>
+        <v>164800</v>
       </c>
       <c r="E76" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="F76" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="G76" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-197300</v>
+        <v>-206600</v>
       </c>
       <c r="E81" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F81" s="3">
-        <v>-9400</v>
+        <v>-9900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2709,7 +2709,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-81900</v>
+        <v>-85800</v>
       </c>
       <c r="E89" s="3">
-        <v>-18500</v>
+        <v>-19300</v>
       </c>
       <c r="F89" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100400</v>
+        <v>-105100</v>
       </c>
       <c r="E91" s="3">
-        <v>-55500</v>
+        <v>-58100</v>
       </c>
       <c r="F91" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-154900</v>
+        <v>-162200</v>
       </c>
       <c r="E94" s="3">
-        <v>-48000</v>
+        <v>-50300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7000</v>
+        <v>-7400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>260300</v>
+        <v>272700</v>
       </c>
       <c r="E100" s="3">
-        <v>71100</v>
+        <v>74500</v>
       </c>
       <c r="F100" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="G100" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22700</v>
+        <v>23800</v>
       </c>
       <c r="E102" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G102" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57700</v>
+        <v>58400</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42700</v>
+        <v>43200</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106600</v>
+        <v>107900</v>
       </c>
       <c r="E14" s="3">
         <v>1400</v>
@@ -951,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>232500</v>
+        <v>235100</v>
       </c>
       <c r="E17" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="F17" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-174700</v>
+        <v>-176700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17300</v>
+        <v>-17500</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-184600</v>
+        <v>-186800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1085,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="E22" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1115,13 +1115,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210300</v>
+        <v>-212700</v>
       </c>
       <c r="E23" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F23" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G23" s="3">
         <v>-1200</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1205,13 +1205,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-206700</v>
+        <v>-209100</v>
       </c>
       <c r="E26" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F26" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G26" s="3">
         <v>-1200</v>
@@ -1235,13 +1235,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-206600</v>
+        <v>-209000</v>
       </c>
       <c r="E27" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F27" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G27" s="3">
         <v>-1200</v>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17300</v>
+        <v>17500</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1415,13 +1415,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-206600</v>
+        <v>-209000</v>
       </c>
       <c r="E33" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F33" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G33" s="3">
         <v>-1200</v>
@@ -1475,13 +1475,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-206600</v>
+        <v>-209000</v>
       </c>
       <c r="E35" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F35" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G35" s="3">
         <v>-1200</v>
@@ -1568,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34500</v>
+        <v>34900</v>
       </c>
       <c r="E41" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F41" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G41" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1628,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="E43" s="3">
         <v>2100</v>
@@ -1658,7 +1658,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56500</v>
+        <v>57200</v>
       </c>
       <c r="E44" s="3">
         <v>1600</v>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
@@ -1718,13 +1718,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>131400</v>
+        <v>132900</v>
       </c>
       <c r="E46" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="F46" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G46" s="3">
         <v>3200</v>
@@ -1778,13 +1778,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>214600</v>
+        <v>217100</v>
       </c>
       <c r="E48" s="3">
-        <v>67300</v>
+        <v>68100</v>
       </c>
       <c r="F48" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G48" s="3">
         <v>6100</v>
@@ -1808,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42200</v>
+        <v>42700</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>388200</v>
+        <v>392600</v>
       </c>
       <c r="E54" s="3">
-        <v>83900</v>
+        <v>84800</v>
       </c>
       <c r="F54" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="G54" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="E57" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="F57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
@@ -2046,13 +2046,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>136000</v>
+        <v>137500</v>
       </c>
       <c r="E58" s="3">
-        <v>38300</v>
+        <v>38700</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53600</v>
+        <v>54200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2106,13 +2106,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204900</v>
+        <v>207300</v>
       </c>
       <c r="E60" s="3">
-        <v>53000</v>
+        <v>53600</v>
       </c>
       <c r="F60" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
@@ -2136,10 +2136,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E61" s="3">
-        <v>36900</v>
+        <v>37300</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2286,13 +2286,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>223400</v>
+        <v>226000</v>
       </c>
       <c r="E66" s="3">
-        <v>89900</v>
+        <v>90900</v>
       </c>
       <c r="F66" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
@@ -2450,13 +2450,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-253100</v>
+        <v>-256000</v>
       </c>
       <c r="E72" s="3">
-        <v>-65300</v>
+        <v>-66000</v>
       </c>
       <c r="F72" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="G72" s="3">
         <v>-2800</v>
@@ -2570,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>164800</v>
+        <v>166700</v>
       </c>
       <c r="E76" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="F76" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="G76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2665,13 +2665,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-206600</v>
+        <v>-209000</v>
       </c>
       <c r="E81" s="3">
-        <v>-43000</v>
+        <v>-43500</v>
       </c>
       <c r="F81" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="G81" s="3">
         <v>-1200</v>
@@ -2709,7 +2709,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -2889,10 +2889,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-85800</v>
+        <v>-86800</v>
       </c>
       <c r="E89" s="3">
-        <v>-19300</v>
+        <v>-19600</v>
       </c>
       <c r="F89" s="3">
         <v>-4000</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105100</v>
+        <v>-106300</v>
       </c>
       <c r="E91" s="3">
-        <v>-58100</v>
+        <v>-58800</v>
       </c>
       <c r="F91" s="3">
         <v>-5800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,13 +3023,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-162200</v>
+        <v>-164100</v>
       </c>
       <c r="E94" s="3">
-        <v>-50300</v>
+        <v>-50800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G94" s="3">
         <v>-3000</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>272700</v>
+        <v>275800</v>
       </c>
       <c r="E100" s="3">
-        <v>74500</v>
+        <v>75400</v>
       </c>
       <c r="F100" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="G100" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3247,10 +3247,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="E102" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>SNDL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,41 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43159</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42794</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,17 +709,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>58400</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>48300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -736,20 +739,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>41000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -769,17 +775,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,23 +826,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>107900</v>
+        <v>99600</v>
       </c>
       <c r="E14" s="3">
-        <v>1400</v>
+        <v>110100</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -903,27 +922,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,26 +970,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235100</v>
+        <v>198200</v>
       </c>
       <c r="E17" s="3">
-        <v>21300</v>
+        <v>146400</v>
       </c>
       <c r="F17" s="3">
-        <v>9900</v>
+        <v>22000</v>
       </c>
       <c r="G17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,17 +1000,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-176700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-149900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-96000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,16 +1051,17 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1048,17 +1081,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-186800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-97000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1078,26 +1114,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18400</v>
+        <v>7300</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>11300</v>
       </c>
       <c r="F22" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1108,27 +1147,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-212700</v>
+        <v>-163600</v>
       </c>
       <c r="E23" s="3">
-        <v>-43500</v>
+        <v>-116000</v>
       </c>
       <c r="F23" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,17 +1180,20 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2900</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1165,12 +1210,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,27 +1246,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-209100</v>
+        <v>-163600</v>
       </c>
       <c r="E26" s="3">
-        <v>-43500</v>
+        <v>-113200</v>
       </c>
       <c r="F26" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,27 +1279,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-209000</v>
+        <v>-163400</v>
       </c>
       <c r="E27" s="3">
-        <v>-43500</v>
+        <v>-113000</v>
       </c>
       <c r="F27" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,39 +1345,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-26700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-102200</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,17 +1444,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17500</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1408,27 +1477,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-209000</v>
+        <v>-190100</v>
       </c>
       <c r="E33" s="3">
-        <v>-43500</v>
+        <v>-215300</v>
       </c>
       <c r="F33" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,27 +1543,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-209000</v>
+        <v>-190100</v>
       </c>
       <c r="E35" s="3">
-        <v>-43500</v>
+        <v>-215300</v>
       </c>
       <c r="F35" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1498,32 +1576,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43159</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42794</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1614,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,26 +1647,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34900</v>
+        <v>47900</v>
       </c>
       <c r="E41" s="3">
-        <v>10900</v>
+        <v>36000</v>
       </c>
       <c r="F41" s="3">
-        <v>5900</v>
+        <v>11200</v>
       </c>
       <c r="G41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,27 +1710,30 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21300</v>
+        <v>12600</v>
       </c>
       <c r="E43" s="3">
-        <v>2100</v>
+        <v>21900</v>
       </c>
       <c r="F43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,26 +1743,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57200</v>
+        <v>23100</v>
       </c>
       <c r="E44" s="3">
-        <v>1600</v>
+        <v>58900</v>
       </c>
       <c r="F44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1681,27 +1776,30 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>20100</v>
       </c>
       <c r="F45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,26 +1809,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>132900</v>
+        <v>93900</v>
       </c>
       <c r="E46" s="3">
-        <v>16700</v>
+        <v>136900</v>
       </c>
       <c r="F46" s="3">
-        <v>6900</v>
+        <v>17200</v>
       </c>
       <c r="G46" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1741,56 +1842,62 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>41100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>217100</v>
+        <v>92700</v>
       </c>
       <c r="E48" s="3">
-        <v>68100</v>
+        <v>223600</v>
       </c>
       <c r="F48" s="3">
-        <v>10100</v>
+        <v>70200</v>
       </c>
       <c r="G48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1801,26 +1908,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42700</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,26 +2007,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,26 +2073,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>392600</v>
+        <v>233800</v>
       </c>
       <c r="E54" s="3">
-        <v>84800</v>
+        <v>404500</v>
       </c>
       <c r="F54" s="3">
-        <v>19800</v>
+        <v>87400</v>
       </c>
       <c r="G54" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>10000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,26 +2139,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>14900</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>3800</v>
+        <v>15300</v>
       </c>
       <c r="G57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,26 +2169,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137500</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>38700</v>
+        <v>141700</v>
       </c>
       <c r="F58" s="3">
-        <v>5400</v>
+        <v>39900</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2069,17 +2202,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2096,30 +2232,33 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>207300</v>
+        <v>19100</v>
       </c>
       <c r="E60" s="3">
-        <v>53600</v>
+        <v>213500</v>
       </c>
       <c r="F60" s="3">
-        <v>9200</v>
+        <v>55200</v>
       </c>
       <c r="G60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,24 +2268,27 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12500</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>37300</v>
+        <v>12900</v>
       </c>
       <c r="F61" s="3">
+        <v>38400</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2159,17 +2301,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2186,12 +2331,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,27 +2433,30 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226000</v>
+        <v>23500</v>
       </c>
       <c r="E66" s="3">
-        <v>90900</v>
+        <v>232800</v>
       </c>
       <c r="F66" s="3">
-        <v>9300</v>
+        <v>93700</v>
       </c>
       <c r="G66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,26 +2613,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-256000</v>
+        <v>-442800</v>
       </c>
       <c r="E72" s="3">
-        <v>-66000</v>
+        <v>-263700</v>
       </c>
       <c r="F72" s="3">
-        <v>-12800</v>
+        <v>-68000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-13200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,26 +2745,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>166700</v>
+        <v>210300</v>
       </c>
       <c r="E76" s="3">
-        <v>-6100</v>
+        <v>171700</v>
       </c>
       <c r="F76" s="3">
-        <v>10600</v>
+        <v>-6300</v>
       </c>
       <c r="G76" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>9100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,32 +2811,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43159</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42794</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,27 +2849,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-209000</v>
+        <v>-190100</v>
       </c>
       <c r="E81" s="3">
-        <v>-43500</v>
+        <v>-215300</v>
       </c>
       <c r="F81" s="3">
-        <v>-10000</v>
+        <v>-44800</v>
       </c>
       <c r="G81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,26 +2900,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7500</v>
+        <v>9200</v>
       </c>
       <c r="E83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,27 +3095,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-86800</v>
+        <v>-45600</v>
       </c>
       <c r="E89" s="3">
-        <v>-19600</v>
+        <v>-89400</v>
       </c>
       <c r="F89" s="3">
-        <v>-4000</v>
+        <v>-20100</v>
       </c>
       <c r="G89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,25 +3146,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106300</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-58800</v>
+        <v>-109500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5800</v>
+        <v>-60500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-6000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,26 +3242,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164100</v>
+        <v>-56200</v>
       </c>
       <c r="E94" s="3">
-        <v>-50800</v>
+        <v>-169000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7500</v>
+        <v>-52400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-7700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,26 +3422,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>275800</v>
+        <v>113200</v>
       </c>
       <c r="E100" s="3">
-        <v>75400</v>
+        <v>284100</v>
       </c>
       <c r="F100" s="3">
-        <v>14500</v>
+        <v>77600</v>
       </c>
       <c r="G100" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3210,18 +3455,21 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3237,29 +3485,32 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24000</v>
+        <v>11900</v>
       </c>
       <c r="E102" s="3">
-        <v>5000</v>
+        <v>24800</v>
       </c>
       <c r="F102" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="G102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -719,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48300</v>
+        <v>50500</v>
       </c>
       <c r="E8" s="3">
-        <v>50400</v>
+        <v>52700</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41000</v>
+        <v>42900</v>
       </c>
       <c r="E9" s="3">
-        <v>37100</v>
+        <v>38700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -785,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -899,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>99600</v>
+        <v>104100</v>
       </c>
       <c r="E14" s="3">
-        <v>110100</v>
+        <v>115100</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -977,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>198200</v>
+        <v>207200</v>
       </c>
       <c r="E17" s="3">
-        <v>146400</v>
+        <v>153100</v>
       </c>
       <c r="F17" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="G17" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="H17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-149900</v>
+        <v>-156700</v>
       </c>
       <c r="E18" s="3">
-        <v>-96000</v>
+        <v>-100400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1058,10 +1058,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1091,10 +1091,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-147100</v>
+        <v>-153700</v>
       </c>
       <c r="E21" s="3">
-        <v>-97000</v>
+        <v>-101400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="F22" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-163600</v>
+        <v>-171000</v>
       </c>
       <c r="E23" s="3">
-        <v>-116000</v>
+        <v>-121300</v>
       </c>
       <c r="F23" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G23" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H23" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-163600</v>
+        <v>-171000</v>
       </c>
       <c r="E26" s="3">
-        <v>-113200</v>
+        <v>-118300</v>
       </c>
       <c r="F26" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G26" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-163400</v>
+        <v>-170800</v>
       </c>
       <c r="E27" s="3">
-        <v>-113000</v>
+        <v>-118200</v>
       </c>
       <c r="F27" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G27" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1355,10 +1355,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-26700</v>
+        <v>-27900</v>
       </c>
       <c r="E29" s="3">
-        <v>-102200</v>
+        <v>-106900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1454,10 +1454,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1487,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-190100</v>
+        <v>-198700</v>
       </c>
       <c r="E33" s="3">
-        <v>-215300</v>
+        <v>-225100</v>
       </c>
       <c r="F33" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G33" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-190100</v>
+        <v>-198700</v>
       </c>
       <c r="E35" s="3">
-        <v>-215300</v>
+        <v>-225100</v>
       </c>
       <c r="F35" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G35" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1654,19 +1654,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47900</v>
+        <v>50100</v>
       </c>
       <c r="E41" s="3">
-        <v>36000</v>
+        <v>37600</v>
       </c>
       <c r="F41" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="G41" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="H41" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1720,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="E43" s="3">
-        <v>21900</v>
+        <v>22900</v>
       </c>
       <c r="F43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -1753,10 +1753,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="E44" s="3">
-        <v>58900</v>
+        <v>61600</v>
       </c>
       <c r="F44" s="3">
         <v>1700</v>
@@ -1786,13 +1786,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="E45" s="3">
-        <v>20100</v>
+        <v>21100</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -1819,19 +1819,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>93900</v>
+        <v>98100</v>
       </c>
       <c r="E46" s="3">
-        <v>136900</v>
+        <v>143100</v>
       </c>
       <c r="F46" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H46" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1852,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41100</v>
+        <v>43000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92700</v>
+        <v>96900</v>
       </c>
       <c r="E48" s="3">
-        <v>223600</v>
+        <v>233800</v>
       </c>
       <c r="F48" s="3">
-        <v>70200</v>
+        <v>73400</v>
       </c>
       <c r="G48" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1918,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="E49" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233800</v>
+        <v>244500</v>
       </c>
       <c r="E54" s="3">
-        <v>404500</v>
+        <v>422800</v>
       </c>
       <c r="F54" s="3">
-        <v>87400</v>
+        <v>91400</v>
       </c>
       <c r="G54" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="H54" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2146,16 +2146,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F57" s="3">
         <v>16000</v>
       </c>
-      <c r="F57" s="3">
-        <v>15300</v>
-      </c>
       <c r="G57" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
@@ -2182,13 +2182,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>141700</v>
+        <v>148100</v>
       </c>
       <c r="F58" s="3">
-        <v>39900</v>
+        <v>41700</v>
       </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="E59" s="3">
-        <v>55800</v>
+        <v>58400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2245,16 +2245,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="E60" s="3">
-        <v>213500</v>
+        <v>223200</v>
       </c>
       <c r="F60" s="3">
-        <v>55200</v>
+        <v>57800</v>
       </c>
       <c r="G60" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
@@ -2278,13 +2278,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F61" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2443,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="E66" s="3">
-        <v>232800</v>
+        <v>243400</v>
       </c>
       <c r="F66" s="3">
-        <v>93700</v>
+        <v>97900</v>
       </c>
       <c r="G66" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
@@ -2623,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-442800</v>
+        <v>-463000</v>
       </c>
       <c r="E72" s="3">
-        <v>-263700</v>
+        <v>-275700</v>
       </c>
       <c r="F72" s="3">
-        <v>-68000</v>
+        <v>-71100</v>
       </c>
       <c r="G72" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2755,19 +2755,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>210300</v>
+        <v>219900</v>
       </c>
       <c r="E76" s="3">
-        <v>171700</v>
+        <v>179500</v>
       </c>
       <c r="F76" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="G76" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="H76" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-190100</v>
+        <v>-198700</v>
       </c>
       <c r="E81" s="3">
-        <v>-215300</v>
+        <v>-225100</v>
       </c>
       <c r="F81" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="G81" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2907,13 +2907,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3105,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-45600</v>
+        <v>-47700</v>
       </c>
       <c r="E89" s="3">
-        <v>-89400</v>
+        <v>-93500</v>
       </c>
       <c r="F89" s="3">
-        <v>-20100</v>
+        <v>-21100</v>
       </c>
       <c r="G89" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
-        <v>-109500</v>
+        <v>-114500</v>
       </c>
       <c r="F91" s="3">
-        <v>-60500</v>
+        <v>-63300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-6300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56200</v>
+        <v>-58800</v>
       </c>
       <c r="E94" s="3">
-        <v>-169000</v>
+        <v>-176700</v>
       </c>
       <c r="F94" s="3">
-        <v>-52400</v>
+        <v>-54700</v>
       </c>
       <c r="G94" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>113200</v>
+        <v>118300</v>
       </c>
       <c r="E100" s="3">
-        <v>284100</v>
+        <v>297000</v>
       </c>
       <c r="F100" s="3">
-        <v>77600</v>
+        <v>81200</v>
       </c>
       <c r="G100" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="H100" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3465,10 +3465,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="E102" s="3">
-        <v>24800</v>
+        <v>25900</v>
       </c>
       <c r="F102" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G102" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H102" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -719,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>50500</v>
+        <v>47500</v>
       </c>
       <c r="E8" s="3">
-        <v>52700</v>
+        <v>49600</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42900</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>38700</v>
+        <v>36400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -785,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="E10" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -899,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>104100</v>
+        <v>97900</v>
       </c>
       <c r="E14" s="3">
-        <v>115100</v>
+        <v>108300</v>
       </c>
       <c r="F14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -977,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>207200</v>
+        <v>194800</v>
       </c>
       <c r="E17" s="3">
-        <v>153100</v>
+        <v>144000</v>
       </c>
       <c r="F17" s="3">
-        <v>23000</v>
+        <v>21600</v>
       </c>
       <c r="G17" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-156700</v>
+        <v>-147400</v>
       </c>
       <c r="E18" s="3">
-        <v>-100400</v>
+        <v>-94400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1058,10 +1058,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1091,10 +1091,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-153700</v>
+        <v>-144500</v>
       </c>
       <c r="E21" s="3">
-        <v>-101400</v>
+        <v>-95300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>23900</v>
+        <v>22400</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171000</v>
+        <v>-160900</v>
       </c>
       <c r="E23" s="3">
-        <v>-121300</v>
+        <v>-114100</v>
       </c>
       <c r="F23" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G23" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H23" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171000</v>
+        <v>-160900</v>
       </c>
       <c r="E26" s="3">
-        <v>-118300</v>
+        <v>-111300</v>
       </c>
       <c r="F26" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G26" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-170800</v>
+        <v>-160700</v>
       </c>
       <c r="E27" s="3">
-        <v>-118200</v>
+        <v>-111100</v>
       </c>
       <c r="F27" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G27" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1355,10 +1355,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-27900</v>
+        <v>-26200</v>
       </c>
       <c r="E29" s="3">
-        <v>-106900</v>
+        <v>-100500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1454,10 +1454,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1487,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-198700</v>
+        <v>-186900</v>
       </c>
       <c r="E33" s="3">
-        <v>-225100</v>
+        <v>-211700</v>
       </c>
       <c r="F33" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G33" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-198700</v>
+        <v>-186900</v>
       </c>
       <c r="E35" s="3">
-        <v>-225100</v>
+        <v>-211700</v>
       </c>
       <c r="F35" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G35" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1654,19 +1654,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50100</v>
+        <v>47100</v>
       </c>
       <c r="E41" s="3">
-        <v>37600</v>
+        <v>35300</v>
       </c>
       <c r="F41" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="G41" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H41" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1720,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>22900</v>
+        <v>21500</v>
       </c>
       <c r="F43" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -1753,13 +1753,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="E44" s="3">
-        <v>61600</v>
+        <v>57900</v>
       </c>
       <c r="F44" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -1786,13 +1786,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10700</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -1819,19 +1819,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>98100</v>
+        <v>92300</v>
       </c>
       <c r="E46" s="3">
-        <v>143100</v>
+        <v>134600</v>
       </c>
       <c r="F46" s="3">
-        <v>18000</v>
+        <v>16900</v>
       </c>
       <c r="G46" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H46" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1852,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43000</v>
+        <v>40400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96900</v>
+        <v>91200</v>
       </c>
       <c r="E48" s="3">
-        <v>233800</v>
+        <v>219900</v>
       </c>
       <c r="F48" s="3">
-        <v>73400</v>
+        <v>69000</v>
       </c>
       <c r="G48" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="H48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1918,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
-        <v>46000</v>
+        <v>43200</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>244500</v>
+        <v>229900</v>
       </c>
       <c r="E54" s="3">
-        <v>422800</v>
+        <v>397700</v>
       </c>
       <c r="F54" s="3">
-        <v>91400</v>
+        <v>85900</v>
       </c>
       <c r="G54" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="H54" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2146,16 +2146,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>16800</v>
+        <v>15800</v>
       </c>
       <c r="F57" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="G57" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
@@ -2182,13 +2182,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>148100</v>
+        <v>139300</v>
       </c>
       <c r="F58" s="3">
-        <v>41700</v>
+        <v>39200</v>
       </c>
       <c r="G58" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="E59" s="3">
-        <v>58400</v>
+        <v>54900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2245,16 +2245,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="E60" s="3">
-        <v>223200</v>
+        <v>209900</v>
       </c>
       <c r="F60" s="3">
-        <v>57800</v>
+        <v>54300</v>
       </c>
       <c r="G60" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
@@ -2278,13 +2278,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="F61" s="3">
-        <v>40200</v>
+        <v>37800</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2443,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24600</v>
+        <v>23100</v>
       </c>
       <c r="E66" s="3">
-        <v>243400</v>
+        <v>228900</v>
       </c>
       <c r="F66" s="3">
-        <v>97900</v>
+        <v>92100</v>
       </c>
       <c r="G66" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
@@ -2623,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-463000</v>
+        <v>-435400</v>
       </c>
       <c r="E72" s="3">
-        <v>-275700</v>
+        <v>-259200</v>
       </c>
       <c r="F72" s="3">
-        <v>-71100</v>
+        <v>-66900</v>
       </c>
       <c r="G72" s="3">
-        <v>-13800</v>
+        <v>-13000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2755,19 +2755,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>219900</v>
+        <v>206800</v>
       </c>
       <c r="E76" s="3">
-        <v>179500</v>
+        <v>168800</v>
       </c>
       <c r="F76" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="G76" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="H76" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-198700</v>
+        <v>-186900</v>
       </c>
       <c r="E81" s="3">
-        <v>-225100</v>
+        <v>-211700</v>
       </c>
       <c r="F81" s="3">
-        <v>-46900</v>
+        <v>-44100</v>
       </c>
       <c r="G81" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2907,13 +2907,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3105,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-47700</v>
+        <v>-44800</v>
       </c>
       <c r="E89" s="3">
-        <v>-93500</v>
+        <v>-87900</v>
       </c>
       <c r="F89" s="3">
-        <v>-21100</v>
+        <v>-19800</v>
       </c>
       <c r="G89" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-114500</v>
+        <v>-107700</v>
       </c>
       <c r="F91" s="3">
-        <v>-63300</v>
+        <v>-59500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58800</v>
+        <v>-55300</v>
       </c>
       <c r="E94" s="3">
-        <v>-176700</v>
+        <v>-166200</v>
       </c>
       <c r="F94" s="3">
-        <v>-54700</v>
+        <v>-51500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118300</v>
+        <v>111300</v>
       </c>
       <c r="E100" s="3">
-        <v>297000</v>
+        <v>279300</v>
       </c>
       <c r="F100" s="3">
-        <v>81200</v>
+        <v>76300</v>
       </c>
       <c r="G100" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="H100" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3465,10 +3465,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="E102" s="3">
-        <v>25900</v>
+        <v>24300</v>
       </c>
       <c r="F102" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G102" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -719,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>47500</v>
+        <v>47800</v>
       </c>
       <c r="E8" s="3">
-        <v>49600</v>
+        <v>49900</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="E9" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -788,7 +788,7 @@
         <v>7200</v>
       </c>
       <c r="E10" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>97900</v>
+        <v>98600</v>
       </c>
       <c r="E14" s="3">
-        <v>108300</v>
+        <v>109000</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
@@ -977,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>194800</v>
+        <v>196200</v>
       </c>
       <c r="E17" s="3">
-        <v>144000</v>
+        <v>145000</v>
       </c>
       <c r="F17" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="G17" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-147400</v>
+        <v>-148400</v>
       </c>
       <c r="E18" s="3">
-        <v>-94400</v>
+        <v>-95100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1091,10 +1091,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-144500</v>
+        <v>-145600</v>
       </c>
       <c r="E21" s="3">
-        <v>-95300</v>
+        <v>-96100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F22" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1157,16 +1157,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-160900</v>
+        <v>-162000</v>
       </c>
       <c r="E23" s="3">
-        <v>-114100</v>
+        <v>-114900</v>
       </c>
       <c r="F23" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G23" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
@@ -1256,16 +1256,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-160900</v>
+        <v>-162000</v>
       </c>
       <c r="E26" s="3">
-        <v>-111300</v>
+        <v>-112000</v>
       </c>
       <c r="F26" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G26" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
@@ -1289,16 +1289,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-160700</v>
+        <v>-161800</v>
       </c>
       <c r="E27" s="3">
-        <v>-111100</v>
+        <v>-111900</v>
       </c>
       <c r="F27" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G27" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
@@ -1355,10 +1355,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="E29" s="3">
-        <v>-100500</v>
+        <v>-101200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1487,16 +1487,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-186900</v>
+        <v>-188200</v>
       </c>
       <c r="E33" s="3">
-        <v>-211700</v>
+        <v>-213100</v>
       </c>
       <c r="F33" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G33" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
@@ -1553,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-186900</v>
+        <v>-188200</v>
       </c>
       <c r="E35" s="3">
-        <v>-211700</v>
+        <v>-213100</v>
       </c>
       <c r="F35" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G35" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
@@ -1654,13 +1654,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47100</v>
+        <v>47400</v>
       </c>
       <c r="E41" s="3">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="F41" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G41" s="3">
         <v>6000</v>
@@ -1720,10 +1720,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E43" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="F43" s="3">
         <v>2100</v>
@@ -1753,13 +1753,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="E44" s="3">
-        <v>57900</v>
+        <v>58300</v>
       </c>
       <c r="F44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -1786,13 +1786,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E45" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -1819,16 +1819,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92300</v>
+        <v>92900</v>
       </c>
       <c r="E46" s="3">
-        <v>134600</v>
+        <v>135500</v>
       </c>
       <c r="F46" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="G46" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H46" s="3">
         <v>3300</v>
@@ -1852,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91200</v>
+        <v>91800</v>
       </c>
       <c r="E48" s="3">
-        <v>219900</v>
+        <v>221400</v>
       </c>
       <c r="F48" s="3">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="G48" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H48" s="3">
         <v>6200</v>
@@ -1918,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>43200</v>
+        <v>43500</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>229900</v>
+        <v>231500</v>
       </c>
       <c r="E54" s="3">
-        <v>397700</v>
+        <v>400400</v>
       </c>
       <c r="F54" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="G54" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="H54" s="3">
         <v>9900</v>
@@ -2149,10 +2149,10 @@
         <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F57" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G57" s="3">
         <v>3800</v>
@@ -2182,10 +2182,10 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>139300</v>
+        <v>140200</v>
       </c>
       <c r="F58" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="G58" s="3">
         <v>5500</v>
@@ -2212,10 +2212,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E59" s="3">
-        <v>54900</v>
+        <v>55300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2245,16 +2245,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="E60" s="3">
-        <v>209900</v>
+        <v>211400</v>
       </c>
       <c r="F60" s="3">
-        <v>54300</v>
+        <v>54700</v>
       </c>
       <c r="G60" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
@@ -2284,7 +2284,7 @@
         <v>12700</v>
       </c>
       <c r="F61" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2443,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="E66" s="3">
-        <v>228900</v>
+        <v>230500</v>
       </c>
       <c r="F66" s="3">
-        <v>92100</v>
+        <v>92700</v>
       </c>
       <c r="G66" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
@@ -2623,13 +2623,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-435400</v>
+        <v>-438400</v>
       </c>
       <c r="E72" s="3">
-        <v>-259200</v>
+        <v>-261000</v>
       </c>
       <c r="F72" s="3">
-        <v>-66900</v>
+        <v>-67300</v>
       </c>
       <c r="G72" s="3">
         <v>-13000</v>
@@ -2755,16 +2755,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206800</v>
+        <v>208200</v>
       </c>
       <c r="E76" s="3">
-        <v>168800</v>
+        <v>170000</v>
       </c>
       <c r="F76" s="3">
         <v>-6200</v>
       </c>
       <c r="G76" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="H76" s="3">
         <v>9000</v>
@@ -2859,16 +2859,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-186900</v>
+        <v>-188200</v>
       </c>
       <c r="E81" s="3">
-        <v>-211700</v>
+        <v>-213100</v>
       </c>
       <c r="F81" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="G81" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
@@ -2907,10 +2907,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="E83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
@@ -3105,13 +3105,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-44800</v>
+        <v>-45100</v>
       </c>
       <c r="E89" s="3">
-        <v>-87900</v>
+        <v>-88500</v>
       </c>
       <c r="F89" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G89" s="3">
         <v>-4100</v>
@@ -3156,16 +3156,16 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-107700</v>
+        <v>-108400</v>
       </c>
       <c r="F91" s="3">
-        <v>-59500</v>
+        <v>-59900</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3252,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55300</v>
+        <v>-55600</v>
       </c>
       <c r="E94" s="3">
-        <v>-166200</v>
+        <v>-167300</v>
       </c>
       <c r="F94" s="3">
-        <v>-51500</v>
+        <v>-51800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>111300</v>
+        <v>112100</v>
       </c>
       <c r="E100" s="3">
-        <v>279300</v>
+        <v>281300</v>
       </c>
       <c r="F100" s="3">
-        <v>76300</v>
+        <v>76800</v>
       </c>
       <c r="G100" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="H100" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3498,13 +3498,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E102" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="F102" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G102" s="3">
         <v>3100</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196200</v>
+        <v>196100</v>
       </c>
       <c r="E17" s="3">
-        <v>145000</v>
+        <v>144900</v>
       </c>
       <c r="F17" s="3">
         <v>21700</v>
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-148400</v>
+        <v>-148300</v>
       </c>
       <c r="E18" s="3">
-        <v>-95100</v>
+        <v>-95000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>-145600</v>
       </c>
       <c r="E21" s="3">
-        <v>-96100</v>
+        <v>-96000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1157,10 +1157,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-162000</v>
+        <v>-161900</v>
       </c>
       <c r="E23" s="3">
-        <v>-114900</v>
+        <v>-114800</v>
       </c>
       <c r="F23" s="3">
         <v>-44400</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-162000</v>
+        <v>-161900</v>
       </c>
       <c r="E26" s="3">
         <v>-112000</v>
@@ -1289,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-161800</v>
+        <v>-161700</v>
       </c>
       <c r="E27" s="3">
         <v>-111900</v>
@@ -1487,10 +1487,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-188200</v>
+        <v>-188100</v>
       </c>
       <c r="E33" s="3">
-        <v>-213100</v>
+        <v>-213000</v>
       </c>
       <c r="F33" s="3">
         <v>-44400</v>
@@ -1553,10 +1553,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-188200</v>
+        <v>-188100</v>
       </c>
       <c r="E35" s="3">
-        <v>-213100</v>
+        <v>-213000</v>
       </c>
       <c r="F35" s="3">
         <v>-44400</v>
@@ -1888,10 +1888,10 @@
         <v>91800</v>
       </c>
       <c r="E48" s="3">
-        <v>221400</v>
+        <v>221300</v>
       </c>
       <c r="F48" s="3">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="G48" s="3">
         <v>10300</v>
@@ -2083,10 +2083,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>231500</v>
+        <v>231400</v>
       </c>
       <c r="E54" s="3">
-        <v>400400</v>
+        <v>400200</v>
       </c>
       <c r="F54" s="3">
         <v>86500</v>
@@ -2215,7 +2215,7 @@
         <v>14800</v>
       </c>
       <c r="E59" s="3">
-        <v>55300</v>
+        <v>55200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2245,10 +2245,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="E60" s="3">
-        <v>211400</v>
+        <v>211300</v>
       </c>
       <c r="F60" s="3">
         <v>54700</v>
@@ -2446,7 +2446,7 @@
         <v>23300</v>
       </c>
       <c r="E66" s="3">
-        <v>230500</v>
+        <v>230400</v>
       </c>
       <c r="F66" s="3">
         <v>92700</v>
@@ -2623,10 +2623,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-438400</v>
+        <v>-438200</v>
       </c>
       <c r="E72" s="3">
-        <v>-261000</v>
+        <v>-260900</v>
       </c>
       <c r="F72" s="3">
         <v>-67300</v>
@@ -2755,10 +2755,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208200</v>
+        <v>208100</v>
       </c>
       <c r="E76" s="3">
-        <v>170000</v>
+        <v>169900</v>
       </c>
       <c r="F76" s="3">
         <v>-6200</v>
@@ -2859,10 +2859,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-188200</v>
+        <v>-188100</v>
       </c>
       <c r="E81" s="3">
-        <v>-213100</v>
+        <v>-213000</v>
       </c>
       <c r="F81" s="3">
         <v>-44400</v>
@@ -3432,10 +3432,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>112100</v>
+        <v>112000</v>
       </c>
       <c r="E100" s="3">
-        <v>281300</v>
+        <v>281100</v>
       </c>
       <c r="F100" s="3">
         <v>76800</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>SNDL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,44 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43159</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42794</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,20 +712,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>47800</v>
+        <v>43000</v>
       </c>
       <c r="E8" s="3">
-        <v>49900</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>46700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>48700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -742,23 +745,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40600</v>
+        <v>37300</v>
       </c>
       <c r="E9" s="3">
-        <v>36700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>39700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>35800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -778,20 +784,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7200</v>
+        <v>5800</v>
       </c>
       <c r="E10" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,26 +839,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>1900</v>
-      </c>
       <c r="F12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,29 +908,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>98600</v>
+        <v>68000</v>
       </c>
       <c r="E14" s="3">
-        <v>109000</v>
+        <v>96300</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>106400</v>
       </c>
       <c r="G14" s="3">
         <v>1400</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -925,30 +944,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,29 +996,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196100</v>
+        <v>168000</v>
       </c>
       <c r="E17" s="3">
-        <v>144900</v>
+        <v>191600</v>
       </c>
       <c r="F17" s="3">
-        <v>21700</v>
+        <v>141600</v>
       </c>
       <c r="G17" s="3">
-        <v>10100</v>
+        <v>21200</v>
       </c>
       <c r="H17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,20 +1029,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-148300</v>
+        <v>-125000</v>
       </c>
       <c r="E18" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-144900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-92800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,19 +1084,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300</v>
+        <v>-52700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-8400</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1084,20 +1117,23 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-145600</v>
+        <v>-170200</v>
       </c>
       <c r="E21" s="3">
-        <v>-96000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-142200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-93700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1117,29 +1153,32 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>11200</v>
+        <v>7100</v>
       </c>
       <c r="F22" s="3">
-        <v>22600</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1150,30 +1189,33 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-161900</v>
+        <v>-178200</v>
       </c>
       <c r="E23" s="3">
-        <v>-114800</v>
+        <v>-158200</v>
       </c>
       <c r="F23" s="3">
-        <v>-44400</v>
+        <v>-112200</v>
       </c>
       <c r="G23" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,21 +1225,24 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,12 +1258,15 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,30 +1297,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-161900</v>
+        <v>-176500</v>
       </c>
       <c r="E26" s="3">
-        <v>-112000</v>
+        <v>-158200</v>
       </c>
       <c r="F26" s="3">
-        <v>-44400</v>
+        <v>-109400</v>
       </c>
       <c r="G26" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,30 +1333,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-161700</v>
+        <v>-176600</v>
       </c>
       <c r="E27" s="3">
-        <v>-111900</v>
+        <v>-153000</v>
       </c>
       <c r="F27" s="3">
-        <v>-44400</v>
+        <v>-109300</v>
       </c>
       <c r="G27" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,20 +1405,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-26400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-101200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-98800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1375,15 +1435,18 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,20 +1513,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6300</v>
+        <v>52700</v>
       </c>
       <c r="E32" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>8400</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1480,30 +1549,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-188100</v>
+        <v>-176600</v>
       </c>
       <c r="E33" s="3">
-        <v>-213000</v>
+        <v>-178800</v>
       </c>
       <c r="F33" s="3">
-        <v>-44400</v>
+        <v>-208100</v>
       </c>
       <c r="G33" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,30 +1621,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-188100</v>
+        <v>-176600</v>
       </c>
       <c r="E35" s="3">
-        <v>-213000</v>
+        <v>-178800</v>
       </c>
       <c r="F35" s="3">
-        <v>-44400</v>
+        <v>-208100</v>
       </c>
       <c r="G35" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,35 +1657,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43159</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42794</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1698,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,28 +1733,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47400</v>
+        <v>428000</v>
       </c>
       <c r="E41" s="3">
-        <v>35600</v>
+        <v>46300</v>
       </c>
       <c r="F41" s="3">
-        <v>11100</v>
+        <v>34800</v>
       </c>
       <c r="G41" s="3">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="H41" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1680,32 +1766,35 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>69600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1713,30 +1802,33 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12500</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>21700</v>
+        <v>12200</v>
       </c>
       <c r="F43" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,29 +1838,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22900</v>
+        <v>26000</v>
       </c>
       <c r="E44" s="3">
-        <v>58300</v>
+        <v>22300</v>
       </c>
       <c r="F44" s="3">
-        <v>1700</v>
+        <v>56900</v>
       </c>
       <c r="G44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1779,30 +1874,33 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10200</v>
+        <v>26300</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,29 +1910,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92900</v>
+        <v>558200</v>
       </c>
       <c r="E46" s="3">
-        <v>135500</v>
+        <v>90700</v>
       </c>
       <c r="F46" s="3">
-        <v>17000</v>
+        <v>132300</v>
       </c>
       <c r="G46" s="3">
-        <v>7000</v>
+        <v>16600</v>
       </c>
       <c r="H46" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1845,17 +1946,20 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>387900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>39800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1872,35 +1976,38 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91800</v>
+        <v>48400</v>
       </c>
       <c r="E48" s="3">
-        <v>221300</v>
+        <v>89600</v>
       </c>
       <c r="F48" s="3">
-        <v>69400</v>
+        <v>216200</v>
       </c>
       <c r="G48" s="3">
-        <v>10300</v>
+        <v>67800</v>
       </c>
       <c r="H48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1911,29 +2018,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>91400</v>
       </c>
       <c r="E49" s="3">
-        <v>43500</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>42500</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,29 +2126,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2043,9 +2162,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,29 +2198,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>231400</v>
+        <v>1091900</v>
       </c>
       <c r="E54" s="3">
-        <v>400200</v>
+        <v>226100</v>
       </c>
       <c r="F54" s="3">
-        <v>86500</v>
+        <v>391000</v>
       </c>
       <c r="G54" s="3">
-        <v>20200</v>
+        <v>84500</v>
       </c>
       <c r="H54" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>9700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2109,9 +2234,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,29 +2269,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
-        <v>15900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2172,29 +2302,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>140200</v>
-      </c>
       <c r="F58" s="3">
-        <v>39500</v>
+        <v>136900</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>38600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2205,20 +2338,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14800</v>
+        <v>42900</v>
       </c>
       <c r="E59" s="3">
-        <v>55200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>14500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>54000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2235,33 +2371,36 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18900</v>
+        <v>50500</v>
       </c>
       <c r="E60" s="3">
-        <v>211300</v>
+        <v>18500</v>
       </c>
       <c r="F60" s="3">
-        <v>54700</v>
+        <v>206400</v>
       </c>
       <c r="G60" s="3">
-        <v>9400</v>
+        <v>53400</v>
       </c>
       <c r="H60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2271,27 +2410,30 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
-        <v>12700</v>
-      </c>
       <c r="F61" s="3">
-        <v>38000</v>
+        <v>12400</v>
       </c>
       <c r="G61" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2304,21 +2446,24 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,12 +2479,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,30 +2590,33 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23300</v>
+        <v>75400</v>
       </c>
       <c r="E66" s="3">
-        <v>230400</v>
+        <v>22700</v>
       </c>
       <c r="F66" s="3">
-        <v>92700</v>
+        <v>225000</v>
       </c>
       <c r="G66" s="3">
-        <v>9500</v>
+        <v>90500</v>
       </c>
       <c r="H66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,9 +2626,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,30 +2786,33 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-438200</v>
+        <v>-598300</v>
       </c>
       <c r="E72" s="3">
-        <v>-260900</v>
+        <v>-428100</v>
       </c>
       <c r="F72" s="3">
-        <v>-67300</v>
+        <v>-254900</v>
       </c>
       <c r="G72" s="3">
-        <v>-13000</v>
+        <v>-65800</v>
       </c>
       <c r="H72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,9 +2822,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,29 +2930,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208100</v>
+        <v>1016500</v>
       </c>
       <c r="E76" s="3">
-        <v>169900</v>
+        <v>203300</v>
       </c>
       <c r="F76" s="3">
-        <v>-6200</v>
+        <v>166000</v>
       </c>
       <c r="G76" s="3">
-        <v>10800</v>
+        <v>-6100</v>
       </c>
       <c r="H76" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2781,9 +2966,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3002,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43159</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42794</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,30 +3043,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-188100</v>
+        <v>-176600</v>
       </c>
       <c r="E81" s="3">
-        <v>-213000</v>
+        <v>-178800</v>
       </c>
       <c r="F81" s="3">
-        <v>-44400</v>
+        <v>-208100</v>
       </c>
       <c r="G81" s="3">
-        <v>-10200</v>
+        <v>-43300</v>
       </c>
       <c r="H81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,29 +3098,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9100</v>
+        <v>7400</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,30 +3311,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-45100</v>
+        <v>-119200</v>
       </c>
       <c r="E89" s="3">
-        <v>-88500</v>
+        <v>-44100</v>
       </c>
       <c r="F89" s="3">
-        <v>-19900</v>
+        <v>-86400</v>
       </c>
       <c r="G89" s="3">
-        <v>-4100</v>
+        <v>-19500</v>
       </c>
       <c r="H89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,28 +3366,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-2900</v>
       </c>
       <c r="E91" s="3">
-        <v>-108400</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-59900</v>
+        <v>-105900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-58500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,29 +3471,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55600</v>
+        <v>-380500</v>
       </c>
       <c r="E94" s="3">
-        <v>-167300</v>
+        <v>-54300</v>
       </c>
       <c r="F94" s="3">
-        <v>-51800</v>
+        <v>-163400</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-50600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-7400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,29 +3667,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>112000</v>
+        <v>881300</v>
       </c>
       <c r="E100" s="3">
-        <v>281100</v>
+        <v>109400</v>
       </c>
       <c r="F100" s="3">
-        <v>76800</v>
+        <v>274700</v>
       </c>
       <c r="G100" s="3">
-        <v>14800</v>
+        <v>75000</v>
       </c>
       <c r="H100" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>14500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3458,21 +3703,24 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,32 +3736,35 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11800</v>
+        <v>381700</v>
       </c>
       <c r="E102" s="3">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="F102" s="3">
-        <v>5100</v>
+        <v>23900</v>
       </c>
       <c r="G102" s="3">
-        <v>3100</v>
+        <v>4900</v>
       </c>
       <c r="H102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3524,7 +3775,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43000</v>
+        <v>43400</v>
       </c>
       <c r="E8" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="F8" s="3">
-        <v>48700</v>
+        <v>49200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -758,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37300</v>
+        <v>37600</v>
       </c>
       <c r="E9" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="F9" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>5800</v>
       </c>
       <c r="E10" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F10" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -918,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68000</v>
+        <v>68600</v>
       </c>
       <c r="E14" s="3">
-        <v>96300</v>
+        <v>97200</v>
       </c>
       <c r="F14" s="3">
-        <v>106400</v>
+        <v>107400</v>
       </c>
       <c r="G14" s="3">
         <v>1400</v>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3">
         <v>3600</v>
@@ -1003,19 +1003,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>168000</v>
+        <v>169600</v>
       </c>
       <c r="E17" s="3">
-        <v>191600</v>
+        <v>193400</v>
       </c>
       <c r="F17" s="3">
-        <v>141600</v>
+        <v>142900</v>
       </c>
       <c r="G17" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="H17" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
@@ -1039,13 +1039,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-125000</v>
+        <v>-126100</v>
       </c>
       <c r="E18" s="3">
-        <v>-144900</v>
+        <v>-146200</v>
       </c>
       <c r="F18" s="3">
-        <v>-92800</v>
+        <v>-93700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1091,13 +1091,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-52700</v>
+        <v>-53100</v>
       </c>
       <c r="E20" s="3">
         <v>-6200</v>
       </c>
       <c r="F20" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1127,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-170200</v>
+        <v>-171900</v>
       </c>
       <c r="E21" s="3">
-        <v>-142200</v>
+        <v>-143500</v>
       </c>
       <c r="F21" s="3">
-        <v>-93700</v>
+        <v>-94700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G22" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-178200</v>
+        <v>-179900</v>
       </c>
       <c r="E23" s="3">
-        <v>-158200</v>
+        <v>-159600</v>
       </c>
       <c r="F23" s="3">
-        <v>-112200</v>
+        <v>-113200</v>
       </c>
       <c r="G23" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H23" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I23" s="3">
         <v>-1200</v>
@@ -1235,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-176500</v>
+        <v>-178100</v>
       </c>
       <c r="E26" s="3">
-        <v>-158200</v>
+        <v>-159600</v>
       </c>
       <c r="F26" s="3">
-        <v>-109400</v>
+        <v>-110400</v>
       </c>
       <c r="G26" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H26" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I26" s="3">
         <v>-1200</v>
@@ -1343,19 +1343,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-176600</v>
+        <v>-178300</v>
       </c>
       <c r="E27" s="3">
-        <v>-153000</v>
+        <v>-154500</v>
       </c>
       <c r="F27" s="3">
-        <v>-109300</v>
+        <v>-110300</v>
       </c>
       <c r="G27" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H27" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I27" s="3">
         <v>-1200</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="F29" s="3">
-        <v>-98800</v>
+        <v>-99800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1523,13 +1523,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52700</v>
+        <v>53100</v>
       </c>
       <c r="E32" s="3">
         <v>6200</v>
       </c>
       <c r="F32" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1559,19 +1559,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-176600</v>
+        <v>-178300</v>
       </c>
       <c r="E33" s="3">
-        <v>-178800</v>
+        <v>-180500</v>
       </c>
       <c r="F33" s="3">
-        <v>-208100</v>
+        <v>-210000</v>
       </c>
       <c r="G33" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H33" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
         <v>-1200</v>
@@ -1631,19 +1631,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-176600</v>
+        <v>-178300</v>
       </c>
       <c r="E35" s="3">
-        <v>-178800</v>
+        <v>-180500</v>
       </c>
       <c r="F35" s="3">
-        <v>-208100</v>
+        <v>-210000</v>
       </c>
       <c r="G35" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H35" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
         <v>-1200</v>
@@ -1740,22 +1740,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>428000</v>
+        <v>431900</v>
       </c>
       <c r="E41" s="3">
-        <v>46300</v>
+        <v>46700</v>
       </c>
       <c r="F41" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="G41" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="H41" s="3">
         <v>5900</v>
       </c>
       <c r="I41" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69600</v>
+        <v>70200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1812,13 +1812,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F43" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="G43" s="3">
         <v>2100</v>
@@ -1848,13 +1848,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="E44" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="F44" s="3">
-        <v>56900</v>
+        <v>57500</v>
       </c>
       <c r="G44" s="3">
         <v>1600</v>
@@ -1884,13 +1884,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="E45" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="G45" s="3">
         <v>2100</v>
@@ -1920,19 +1920,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>558200</v>
+        <v>563400</v>
       </c>
       <c r="E46" s="3">
-        <v>90700</v>
+        <v>91600</v>
       </c>
       <c r="F46" s="3">
-        <v>132300</v>
+        <v>133600</v>
       </c>
       <c r="G46" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="H46" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I46" s="3">
         <v>3200</v>
@@ -1956,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>387900</v>
+        <v>391500</v>
       </c>
       <c r="E47" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1992,22 +1992,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48400</v>
+        <v>48900</v>
       </c>
       <c r="E48" s="3">
-        <v>89600</v>
+        <v>90500</v>
       </c>
       <c r="F48" s="3">
-        <v>216200</v>
+        <v>218200</v>
       </c>
       <c r="G48" s="3">
-        <v>67800</v>
+        <v>68500</v>
       </c>
       <c r="H48" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I48" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2028,13 +2028,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91400</v>
+        <v>92300</v>
       </c>
       <c r="E49" s="3">
         <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>42500</v>
+        <v>42900</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -2208,22 +2208,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1091900</v>
+        <v>1102000</v>
       </c>
       <c r="E54" s="3">
-        <v>226100</v>
+        <v>228200</v>
       </c>
       <c r="F54" s="3">
-        <v>391000</v>
+        <v>394600</v>
       </c>
       <c r="G54" s="3">
-        <v>84500</v>
+        <v>85300</v>
       </c>
       <c r="H54" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="I54" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2279,13 +2279,13 @@
         <v>3200</v>
       </c>
       <c r="E57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F57" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="G57" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H57" s="3">
         <v>3800</v>
@@ -2318,10 +2318,10 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>136900</v>
+        <v>138200</v>
       </c>
       <c r="G58" s="3">
-        <v>38600</v>
+        <v>38900</v>
       </c>
       <c r="H58" s="3">
         <v>5400</v>
@@ -2348,13 +2348,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42900</v>
+        <v>43300</v>
       </c>
       <c r="E59" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F59" s="3">
-        <v>54000</v>
+        <v>54500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2384,19 +2384,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50500</v>
+        <v>51000</v>
       </c>
       <c r="E60" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="F60" s="3">
-        <v>206400</v>
+        <v>208300</v>
       </c>
       <c r="G60" s="3">
-        <v>53400</v>
+        <v>53900</v>
       </c>
       <c r="H60" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
@@ -2420,16 +2420,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="G61" s="3">
-        <v>37100</v>
+        <v>37500</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2600,19 +2600,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75400</v>
+        <v>76100</v>
       </c>
       <c r="E66" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="F66" s="3">
-        <v>225000</v>
+        <v>227100</v>
       </c>
       <c r="G66" s="3">
-        <v>90500</v>
+        <v>91400</v>
       </c>
       <c r="H66" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
@@ -2796,19 +2796,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-598300</v>
+        <v>-603800</v>
       </c>
       <c r="E72" s="3">
-        <v>-428100</v>
+        <v>-432100</v>
       </c>
       <c r="F72" s="3">
-        <v>-254900</v>
+        <v>-257300</v>
       </c>
       <c r="G72" s="3">
-        <v>-65800</v>
+        <v>-66400</v>
       </c>
       <c r="H72" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="I72" s="3">
         <v>-2800</v>
@@ -2940,22 +2940,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1016500</v>
+        <v>1025900</v>
       </c>
       <c r="E76" s="3">
-        <v>203300</v>
+        <v>205200</v>
       </c>
       <c r="F76" s="3">
-        <v>166000</v>
+        <v>167500</v>
       </c>
       <c r="G76" s="3">
         <v>-6100</v>
       </c>
       <c r="H76" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="I76" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3053,19 +3053,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-176600</v>
+        <v>-178300</v>
       </c>
       <c r="E81" s="3">
-        <v>-178800</v>
+        <v>-180500</v>
       </c>
       <c r="F81" s="3">
-        <v>-208100</v>
+        <v>-210000</v>
       </c>
       <c r="G81" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="H81" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
         <v>-1200</v>
@@ -3108,10 +3108,10 @@
         <v>7400</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3321,19 +3321,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-119200</v>
+        <v>-120300</v>
       </c>
       <c r="E89" s="3">
-        <v>-44100</v>
+        <v>-44500</v>
       </c>
       <c r="F89" s="3">
-        <v>-86400</v>
+        <v>-87200</v>
       </c>
       <c r="G89" s="3">
-        <v>-19500</v>
+        <v>-19700</v>
       </c>
       <c r="H89" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I89" s="3">
         <v>-1100</v>
@@ -3379,13 +3379,13 @@
         <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-105900</v>
+        <v>-106900</v>
       </c>
       <c r="G91" s="3">
-        <v>-58500</v>
+        <v>-59100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I91" s="3">
         <v>-3700</v>
@@ -3481,19 +3481,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-380500</v>
+        <v>-384000</v>
       </c>
       <c r="E94" s="3">
-        <v>-54300</v>
+        <v>-54800</v>
       </c>
       <c r="F94" s="3">
-        <v>-163400</v>
+        <v>-164900</v>
       </c>
       <c r="G94" s="3">
-        <v>-50600</v>
+        <v>-51100</v>
       </c>
       <c r="H94" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="I94" s="3">
         <v>-3000</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>881300</v>
+        <v>889500</v>
       </c>
       <c r="E100" s="3">
-        <v>109400</v>
+        <v>110400</v>
       </c>
       <c r="F100" s="3">
-        <v>274700</v>
+        <v>277200</v>
       </c>
       <c r="G100" s="3">
-        <v>75000</v>
+        <v>75700</v>
       </c>
       <c r="H100" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="I100" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3749,22 +3749,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>381700</v>
+        <v>385200</v>
       </c>
       <c r="E102" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="F102" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="G102" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H102" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>42100</v>
       </c>
       <c r="E8" s="3">
-        <v>47100</v>
+        <v>45700</v>
       </c>
       <c r="F8" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -758,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37600</v>
+        <v>36500</v>
       </c>
       <c r="E9" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="F9" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -794,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E10" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F10" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -846,13 +846,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -918,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68600</v>
+        <v>66600</v>
       </c>
       <c r="E14" s="3">
-        <v>97200</v>
+        <v>94300</v>
       </c>
       <c r="F14" s="3">
-        <v>107400</v>
+        <v>104300</v>
       </c>
       <c r="G14" s="3">
         <v>1400</v>
@@ -954,13 +954,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
@@ -1003,22 +1003,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>169600</v>
+        <v>164500</v>
       </c>
       <c r="E17" s="3">
-        <v>193400</v>
+        <v>187600</v>
       </c>
       <c r="F17" s="3">
-        <v>142900</v>
+        <v>138700</v>
       </c>
       <c r="G17" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="H17" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="I17" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-126100</v>
+        <v>-122400</v>
       </c>
       <c r="E18" s="3">
-        <v>-146200</v>
+        <v>-141900</v>
       </c>
       <c r="F18" s="3">
-        <v>-93700</v>
+        <v>-90900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1091,13 +1091,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53100</v>
+        <v>-51600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1127,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-171900</v>
+        <v>-166900</v>
       </c>
       <c r="E21" s="3">
-        <v>-143500</v>
+        <v>-139400</v>
       </c>
       <c r="F21" s="3">
-        <v>-94700</v>
+        <v>-92000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F22" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="G22" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-179900</v>
+        <v>-174500</v>
       </c>
       <c r="E23" s="3">
-        <v>-159600</v>
+        <v>-154900</v>
       </c>
       <c r="F23" s="3">
-        <v>-113200</v>
+        <v>-109900</v>
       </c>
       <c r="G23" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H23" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I23" s="3">
         <v>-1200</v>
@@ -1235,13 +1235,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1307,19 +1307,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-178100</v>
+        <v>-172800</v>
       </c>
       <c r="E26" s="3">
-        <v>-159600</v>
+        <v>-154900</v>
       </c>
       <c r="F26" s="3">
-        <v>-110400</v>
+        <v>-107100</v>
       </c>
       <c r="G26" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H26" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I26" s="3">
         <v>-1200</v>
@@ -1343,19 +1343,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-178300</v>
+        <v>-173000</v>
       </c>
       <c r="E27" s="3">
-        <v>-154500</v>
+        <v>-149900</v>
       </c>
       <c r="F27" s="3">
-        <v>-110300</v>
+        <v>-107000</v>
       </c>
       <c r="G27" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H27" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I27" s="3">
         <v>-1200</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="F29" s="3">
-        <v>-99800</v>
+        <v>-96800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1523,13 +1523,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1559,19 +1559,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-178300</v>
+        <v>-173000</v>
       </c>
       <c r="E33" s="3">
-        <v>-180500</v>
+        <v>-175100</v>
       </c>
       <c r="F33" s="3">
-        <v>-210000</v>
+        <v>-203800</v>
       </c>
       <c r="G33" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H33" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I33" s="3">
         <v>-1200</v>
@@ -1631,19 +1631,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-178300</v>
+        <v>-173000</v>
       </c>
       <c r="E35" s="3">
-        <v>-180500</v>
+        <v>-175100</v>
       </c>
       <c r="F35" s="3">
-        <v>-210000</v>
+        <v>-203800</v>
       </c>
       <c r="G35" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H35" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I35" s="3">
         <v>-1200</v>
@@ -1740,22 +1740,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431900</v>
+        <v>419200</v>
       </c>
       <c r="E41" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="F41" s="3">
-        <v>35100</v>
+        <v>34000</v>
       </c>
       <c r="G41" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="H41" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I41" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70200</v>
+        <v>68200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1812,13 +1812,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="E43" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="G43" s="3">
         <v>2100</v>
@@ -1848,13 +1848,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26200</v>
+        <v>25500</v>
       </c>
       <c r="E44" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="F44" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="G44" s="3">
         <v>1600</v>
@@ -1884,13 +1884,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="E45" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="G45" s="3">
         <v>2100</v>
@@ -1920,22 +1920,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>563400</v>
+        <v>546800</v>
       </c>
       <c r="E46" s="3">
-        <v>91600</v>
+        <v>88900</v>
       </c>
       <c r="F46" s="3">
-        <v>133600</v>
+        <v>129600</v>
       </c>
       <c r="G46" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="H46" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I46" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1956,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>391500</v>
+        <v>379900</v>
       </c>
       <c r="E47" s="3">
-        <v>40100</v>
+        <v>39000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1992,22 +1992,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="E48" s="3">
-        <v>90500</v>
+        <v>87800</v>
       </c>
       <c r="F48" s="3">
-        <v>218200</v>
+        <v>211700</v>
       </c>
       <c r="G48" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="H48" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="I48" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2028,13 +2028,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>92300</v>
+        <v>89500</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1102000</v>
+        <v>1069400</v>
       </c>
       <c r="E54" s="3">
-        <v>228200</v>
+        <v>221400</v>
       </c>
       <c r="F54" s="3">
-        <v>394600</v>
+        <v>383000</v>
       </c>
       <c r="G54" s="3">
-        <v>85300</v>
+        <v>82700</v>
       </c>
       <c r="H54" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="I54" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2276,22 +2276,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="G57" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="H57" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2312,19 +2312,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>138200</v>
+        <v>134100</v>
       </c>
       <c r="G58" s="3">
-        <v>38900</v>
+        <v>37800</v>
       </c>
       <c r="H58" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2348,13 +2348,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="E59" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="F59" s="3">
-        <v>54500</v>
+        <v>52800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2384,22 +2384,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51000</v>
+        <v>49400</v>
       </c>
       <c r="E60" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="F60" s="3">
-        <v>208300</v>
+        <v>202200</v>
       </c>
       <c r="G60" s="3">
-        <v>53900</v>
+        <v>52300</v>
       </c>
       <c r="H60" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="I60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2420,16 +2420,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21500</v>
+        <v>20900</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G61" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2456,13 +2456,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2600,19 +2600,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76100</v>
+        <v>73900</v>
       </c>
       <c r="E66" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="F66" s="3">
-        <v>227100</v>
+        <v>220400</v>
       </c>
       <c r="G66" s="3">
-        <v>91400</v>
+        <v>88700</v>
       </c>
       <c r="H66" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
@@ -2796,22 +2796,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-603800</v>
+        <v>-586000</v>
       </c>
       <c r="E72" s="3">
-        <v>-432100</v>
+        <v>-419300</v>
       </c>
       <c r="F72" s="3">
-        <v>-257300</v>
+        <v>-249700</v>
       </c>
       <c r="G72" s="3">
-        <v>-66400</v>
+        <v>-64400</v>
       </c>
       <c r="H72" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2940,22 +2940,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1025900</v>
+        <v>995600</v>
       </c>
       <c r="E76" s="3">
-        <v>205200</v>
+        <v>199200</v>
       </c>
       <c r="F76" s="3">
-        <v>167500</v>
+        <v>162500</v>
       </c>
       <c r="G76" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H76" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="I76" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3053,19 +3053,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-178300</v>
+        <v>-173000</v>
       </c>
       <c r="E81" s="3">
-        <v>-180500</v>
+        <v>-175100</v>
       </c>
       <c r="F81" s="3">
-        <v>-210000</v>
+        <v>-203800</v>
       </c>
       <c r="G81" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H81" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="I81" s="3">
         <v>-1200</v>
@@ -3105,13 +3105,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F83" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3321,22 +3321,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-120300</v>
+        <v>-116700</v>
       </c>
       <c r="E89" s="3">
-        <v>-44500</v>
+        <v>-43200</v>
       </c>
       <c r="F89" s="3">
-        <v>-87200</v>
+        <v>-84600</v>
       </c>
       <c r="G89" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="H89" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3373,22 +3373,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
         <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-106900</v>
+        <v>-103700</v>
       </c>
       <c r="G91" s="3">
-        <v>-59100</v>
+        <v>-57300</v>
       </c>
       <c r="H91" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3481,22 +3481,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-384000</v>
+        <v>-372600</v>
       </c>
       <c r="E94" s="3">
-        <v>-54800</v>
+        <v>-53200</v>
       </c>
       <c r="F94" s="3">
-        <v>-164900</v>
+        <v>-160000</v>
       </c>
       <c r="G94" s="3">
-        <v>-51100</v>
+        <v>-49600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>889500</v>
+        <v>863200</v>
       </c>
       <c r="E100" s="3">
-        <v>110400</v>
+        <v>107200</v>
       </c>
       <c r="F100" s="3">
-        <v>277200</v>
+        <v>269000</v>
       </c>
       <c r="G100" s="3">
-        <v>75700</v>
+        <v>73500</v>
       </c>
       <c r="H100" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="I100" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3749,22 +3749,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>385200</v>
+        <v>373800</v>
       </c>
       <c r="E102" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="F102" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="G102" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H102" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I102" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>42100</v>
+        <v>40600</v>
       </c>
       <c r="E8" s="3">
-        <v>45700</v>
+        <v>44100</v>
       </c>
       <c r="F8" s="3">
-        <v>47700</v>
+        <v>46000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -758,13 +758,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>36500</v>
+        <v>35100</v>
       </c>
       <c r="E9" s="3">
-        <v>38800</v>
+        <v>37400</v>
       </c>
       <c r="F9" s="3">
-        <v>35100</v>
+        <v>33800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -794,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="E10" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="F10" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -918,19 +918,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>66600</v>
+        <v>64100</v>
       </c>
       <c r="E14" s="3">
-        <v>94300</v>
+        <v>90800</v>
       </c>
       <c r="F14" s="3">
-        <v>104300</v>
+        <v>100400</v>
       </c>
       <c r="G14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1003,19 +1003,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164500</v>
+        <v>158500</v>
       </c>
       <c r="E17" s="3">
-        <v>187600</v>
+        <v>180700</v>
       </c>
       <c r="F17" s="3">
-        <v>138700</v>
+        <v>133500</v>
       </c>
       <c r="G17" s="3">
-        <v>20800</v>
+        <v>20000</v>
       </c>
       <c r="H17" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
@@ -1039,13 +1039,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-122400</v>
+        <v>-117900</v>
       </c>
       <c r="E18" s="3">
-        <v>-141900</v>
+        <v>-136700</v>
       </c>
       <c r="F18" s="3">
-        <v>-90900</v>
+        <v>-87600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1091,13 +1091,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51600</v>
+        <v>-49700</v>
       </c>
       <c r="E20" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="F20" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1127,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-166900</v>
+        <v>-160600</v>
       </c>
       <c r="E21" s="3">
-        <v>-139400</v>
+        <v>-134100</v>
       </c>
       <c r="F21" s="3">
-        <v>-92000</v>
+        <v>-88400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F22" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="G22" s="3">
-        <v>21600</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1199,22 +1199,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-174500</v>
+        <v>-168100</v>
       </c>
       <c r="E23" s="3">
-        <v>-154900</v>
+        <v>-149200</v>
       </c>
       <c r="F23" s="3">
-        <v>-109900</v>
+        <v>-105800</v>
       </c>
       <c r="G23" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1235,13 +1235,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1307,22 +1307,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172800</v>
+        <v>-166500</v>
       </c>
       <c r="E26" s="3">
-        <v>-154900</v>
+        <v>-149200</v>
       </c>
       <c r="F26" s="3">
-        <v>-107100</v>
+        <v>-103200</v>
       </c>
       <c r="G26" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H26" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1343,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-173000</v>
+        <v>-166600</v>
       </c>
       <c r="E27" s="3">
-        <v>-149900</v>
+        <v>-144400</v>
       </c>
       <c r="F27" s="3">
-        <v>-107000</v>
+        <v>-103100</v>
       </c>
       <c r="G27" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H27" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="F29" s="3">
-        <v>-96800</v>
+        <v>-93200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1523,13 +1523,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51600</v>
+        <v>49700</v>
       </c>
       <c r="E32" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F32" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-173000</v>
+        <v>-166600</v>
       </c>
       <c r="E33" s="3">
-        <v>-175100</v>
+        <v>-168700</v>
       </c>
       <c r="F33" s="3">
-        <v>-203800</v>
+        <v>-196300</v>
       </c>
       <c r="G33" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H33" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1631,22 +1631,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-173000</v>
+        <v>-166600</v>
       </c>
       <c r="E35" s="3">
-        <v>-175100</v>
+        <v>-168700</v>
       </c>
       <c r="F35" s="3">
-        <v>-203800</v>
+        <v>-196300</v>
       </c>
       <c r="G35" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H35" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1740,22 +1740,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>419200</v>
+        <v>403700</v>
       </c>
       <c r="E41" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="F41" s="3">
-        <v>34000</v>
+        <v>32800</v>
       </c>
       <c r="G41" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="H41" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I41" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68200</v>
+        <v>65700</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1812,16 +1812,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="F43" s="3">
-        <v>20800</v>
+        <v>20000</v>
       </c>
       <c r="G43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -1848,16 +1848,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25500</v>
+        <v>44100</v>
       </c>
       <c r="E44" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>55800</v>
+        <v>53700</v>
       </c>
       <c r="G44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -1884,19 +1884,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="F45" s="3">
-        <v>19100</v>
+        <v>18400</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -1920,22 +1920,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>546800</v>
+        <v>526600</v>
       </c>
       <c r="E46" s="3">
-        <v>88900</v>
+        <v>85600</v>
       </c>
       <c r="F46" s="3">
-        <v>129600</v>
+        <v>124800</v>
       </c>
       <c r="G46" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="H46" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I46" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1956,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>379900</v>
+        <v>365900</v>
       </c>
       <c r="E47" s="3">
-        <v>39000</v>
+        <v>37500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1992,22 +1992,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47400</v>
+        <v>45700</v>
       </c>
       <c r="E48" s="3">
-        <v>87800</v>
+        <v>84600</v>
       </c>
       <c r="F48" s="3">
-        <v>211700</v>
+        <v>203900</v>
       </c>
       <c r="G48" s="3">
-        <v>66400</v>
+        <v>64000</v>
       </c>
       <c r="H48" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="I48" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2028,13 +2028,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>89500</v>
+        <v>88700</v>
       </c>
       <c r="E49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F49" s="3">
-        <v>41600</v>
+        <v>40100</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1069400</v>
+        <v>1032500</v>
       </c>
       <c r="E54" s="3">
-        <v>221400</v>
+        <v>213300</v>
       </c>
       <c r="F54" s="3">
-        <v>383000</v>
+        <v>368900</v>
       </c>
       <c r="G54" s="3">
-        <v>82700</v>
+        <v>79700</v>
       </c>
       <c r="H54" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="I54" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2276,19 +2276,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>30800</v>
       </c>
       <c r="E57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F57" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H57" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
@@ -2312,19 +2312,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>134100</v>
+        <v>129200</v>
       </c>
       <c r="G58" s="3">
-        <v>37800</v>
+        <v>36400</v>
       </c>
       <c r="H58" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2348,13 +2348,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42000</v>
+        <v>40500</v>
       </c>
       <c r="E59" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="F59" s="3">
-        <v>52800</v>
+        <v>50900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2384,19 +2384,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49400</v>
+        <v>47600</v>
       </c>
       <c r="E60" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="F60" s="3">
-        <v>202200</v>
+        <v>194700</v>
       </c>
       <c r="G60" s="3">
-        <v>52300</v>
+        <v>50400</v>
       </c>
       <c r="H60" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
@@ -2420,16 +2420,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20900</v>
+        <v>20100</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="G61" s="3">
-        <v>36400</v>
+        <v>35000</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2456,13 +2456,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2600,22 +2600,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73900</v>
+        <v>71100</v>
       </c>
       <c r="E66" s="3">
-        <v>22200</v>
+        <v>21400</v>
       </c>
       <c r="F66" s="3">
-        <v>220400</v>
+        <v>212300</v>
       </c>
       <c r="G66" s="3">
-        <v>88700</v>
+        <v>85400</v>
       </c>
       <c r="H66" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="I66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2796,22 +2796,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-586000</v>
+        <v>-562000</v>
       </c>
       <c r="E72" s="3">
-        <v>-419300</v>
+        <v>-403900</v>
       </c>
       <c r="F72" s="3">
-        <v>-249700</v>
+        <v>-240500</v>
       </c>
       <c r="G72" s="3">
-        <v>-64400</v>
+        <v>-62000</v>
       </c>
       <c r="H72" s="3">
-        <v>-12500</v>
+        <v>-12000</v>
       </c>
       <c r="I72" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2940,22 +2940,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>995600</v>
+        <v>961400</v>
       </c>
       <c r="E76" s="3">
-        <v>199200</v>
+        <v>191800</v>
       </c>
       <c r="F76" s="3">
-        <v>162500</v>
+        <v>156600</v>
       </c>
       <c r="G76" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="H76" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="I76" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3053,22 +3053,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-173000</v>
+        <v>-166600</v>
       </c>
       <c r="E81" s="3">
-        <v>-175100</v>
+        <v>-168700</v>
       </c>
       <c r="F81" s="3">
-        <v>-203800</v>
+        <v>-196300</v>
       </c>
       <c r="G81" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H81" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3105,13 +3105,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E83" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -3321,19 +3321,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-116700</v>
+        <v>-112400</v>
       </c>
       <c r="E89" s="3">
-        <v>-43200</v>
+        <v>-41600</v>
       </c>
       <c r="F89" s="3">
-        <v>-84600</v>
+        <v>-81500</v>
       </c>
       <c r="G89" s="3">
-        <v>-19100</v>
+        <v>-18400</v>
       </c>
       <c r="H89" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I89" s="3">
         <v>-1000</v>
@@ -3373,22 +3373,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-103700</v>
+        <v>-99900</v>
       </c>
       <c r="G91" s="3">
-        <v>-57300</v>
+        <v>-55200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3481,22 +3481,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-372600</v>
+        <v>-358900</v>
       </c>
       <c r="E94" s="3">
-        <v>-53200</v>
+        <v>-51300</v>
       </c>
       <c r="F94" s="3">
-        <v>-160000</v>
+        <v>-154200</v>
       </c>
       <c r="G94" s="3">
-        <v>-49600</v>
+        <v>-47800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>863200</v>
+        <v>831400</v>
       </c>
       <c r="E100" s="3">
-        <v>107200</v>
+        <v>103200</v>
       </c>
       <c r="F100" s="3">
-        <v>269000</v>
+        <v>259100</v>
       </c>
       <c r="G100" s="3">
-        <v>73500</v>
+        <v>70800</v>
       </c>
       <c r="H100" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="I100" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3749,22 +3749,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>373800</v>
+        <v>360100</v>
       </c>
       <c r="E102" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F102" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="G102" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>SNDL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43159</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42794</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,23 +715,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40600</v>
+        <v>527600</v>
       </c>
       <c r="E8" s="3">
-        <v>44100</v>
+        <v>41600</v>
       </c>
       <c r="F8" s="3">
-        <v>46000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>45100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>47100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -748,26 +751,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>35100</v>
+        <v>413400</v>
       </c>
       <c r="E9" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="F9" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>38300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>34600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -787,23 +793,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5400</v>
+        <v>114200</v>
       </c>
       <c r="E10" s="3">
-        <v>6600</v>
+        <v>4100</v>
       </c>
       <c r="F10" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -823,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,20 +862,20 @@
         <v>1800</v>
       </c>
       <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
-        <v>1700</v>
-      </c>
       <c r="G12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,32 +927,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>64100</v>
+        <v>151900</v>
       </c>
       <c r="E14" s="3">
-        <v>90800</v>
+        <v>65700</v>
       </c>
       <c r="F14" s="3">
-        <v>100400</v>
+        <v>93000</v>
       </c>
       <c r="G14" s="3">
-        <v>1300</v>
+        <v>102900</v>
       </c>
       <c r="H14" s="3">
         <v>1300</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -947,33 +966,36 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>30300</v>
       </c>
       <c r="E15" s="3">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="F15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -983,9 +1005,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,32 +1022,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>158500</v>
+        <v>798600</v>
       </c>
       <c r="E17" s="3">
-        <v>180700</v>
+        <v>163900</v>
       </c>
       <c r="F17" s="3">
-        <v>133500</v>
+        <v>185100</v>
       </c>
       <c r="G17" s="3">
-        <v>20000</v>
+        <v>136800</v>
       </c>
       <c r="H17" s="3">
-        <v>9300</v>
+        <v>20500</v>
       </c>
       <c r="I17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,23 +1058,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117900</v>
+        <v>-271000</v>
       </c>
       <c r="E18" s="3">
-        <v>-136700</v>
+        <v>-122300</v>
       </c>
       <c r="F18" s="3">
-        <v>-87600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-140000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-89700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1068,9 +1097,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,22 +1117,23 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49700</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-5800</v>
+        <v>-51000</v>
       </c>
       <c r="F20" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-6000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-8100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1120,23 +1153,26 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-160600</v>
+        <v>-241800</v>
       </c>
       <c r="E21" s="3">
-        <v>-134100</v>
+        <v>-165700</v>
       </c>
       <c r="F21" s="3">
-        <v>-88400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-137400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-90600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,32 +1192,35 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>6700</v>
-      </c>
       <c r="F22" s="3">
-        <v>10300</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3">
-        <v>20800</v>
+        <v>10500</v>
       </c>
       <c r="H22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1192,33 +1231,36 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-168100</v>
+        <v>-281300</v>
       </c>
       <c r="E23" s="3">
-        <v>-149200</v>
+        <v>-173900</v>
       </c>
       <c r="F23" s="3">
-        <v>-105800</v>
+        <v>-152800</v>
       </c>
       <c r="G23" s="3">
-        <v>-40900</v>
+        <v>-108400</v>
       </c>
       <c r="H23" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,23 +1270,26 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1600</v>
+        <v>-5400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-5900</v>
       </c>
       <c r="F24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-2700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1261,12 +1306,15 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,33 +1348,36 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166500</v>
+        <v>-275900</v>
       </c>
       <c r="E26" s="3">
-        <v>-149200</v>
+        <v>-168000</v>
       </c>
       <c r="F26" s="3">
-        <v>-103200</v>
+        <v>-152800</v>
       </c>
       <c r="G26" s="3">
-        <v>-40900</v>
+        <v>-105700</v>
       </c>
       <c r="H26" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,33 +1387,36 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-166600</v>
+        <v>-248200</v>
       </c>
       <c r="E27" s="3">
-        <v>-144400</v>
+        <v>-168100</v>
       </c>
       <c r="F27" s="3">
-        <v>-103100</v>
+        <v>-147900</v>
       </c>
       <c r="G27" s="3">
-        <v>-40900</v>
+        <v>-105600</v>
       </c>
       <c r="H27" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,9 +1426,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-93200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>-24900</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-95500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1438,15 +1498,18 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,23 +1582,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49700</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>5800</v>
+        <v>51000</v>
       </c>
       <c r="F32" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1552,33 +1621,36 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-166600</v>
+        <v>-248200</v>
       </c>
       <c r="E33" s="3">
-        <v>-168700</v>
+        <v>-168100</v>
       </c>
       <c r="F33" s="3">
-        <v>-196300</v>
+        <v>-172800</v>
       </c>
       <c r="G33" s="3">
-        <v>-40900</v>
+        <v>-201100</v>
       </c>
       <c r="H33" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,9 +1660,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,33 +1699,36 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-166600</v>
+        <v>-248200</v>
       </c>
       <c r="E35" s="3">
-        <v>-168700</v>
+        <v>-168100</v>
       </c>
       <c r="F35" s="3">
-        <v>-196300</v>
+        <v>-172800</v>
       </c>
       <c r="G35" s="3">
-        <v>-40900</v>
+        <v>-201100</v>
       </c>
       <c r="H35" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1660,38 +1738,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43159</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42794</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1701,9 +1782,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,31 +1819,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>403700</v>
+        <v>207100</v>
       </c>
       <c r="E41" s="3">
-        <v>43700</v>
+        <v>413500</v>
       </c>
       <c r="F41" s="3">
-        <v>32800</v>
+        <v>44700</v>
       </c>
       <c r="G41" s="3">
-        <v>10200</v>
+        <v>33600</v>
       </c>
       <c r="H41" s="3">
-        <v>5600</v>
+        <v>10500</v>
       </c>
       <c r="I41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1769,17 +1855,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>67200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1796,8 +1885,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1805,33 +1894,36 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7900</v>
+        <v>16800</v>
       </c>
       <c r="E43" s="3">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="3">
-        <v>20000</v>
+        <v>11800</v>
       </c>
       <c r="G43" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,32 +1933,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>44100</v>
+        <v>97200</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>45200</v>
       </c>
       <c r="F44" s="3">
-        <v>53700</v>
+        <v>21600</v>
       </c>
       <c r="G44" s="3">
-        <v>1500</v>
+        <v>55000</v>
       </c>
       <c r="H44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1877,33 +1972,36 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>26500</v>
       </c>
       <c r="E45" s="3">
-        <v>9400</v>
+        <v>25500</v>
       </c>
       <c r="F45" s="3">
-        <v>18400</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,32 +2011,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>526600</v>
+        <v>371500</v>
       </c>
       <c r="E46" s="3">
-        <v>85600</v>
+        <v>539400</v>
       </c>
       <c r="F46" s="3">
-        <v>124800</v>
+        <v>87700</v>
       </c>
       <c r="G46" s="3">
-        <v>15700</v>
+        <v>127900</v>
       </c>
       <c r="H46" s="3">
-        <v>6400</v>
+        <v>16100</v>
       </c>
       <c r="I46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1949,20 +2050,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>365900</v>
+        <v>466400</v>
       </c>
       <c r="E47" s="3">
-        <v>37500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>374800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>38400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1979,38 +2083,41 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45700</v>
+        <v>205600</v>
       </c>
       <c r="E48" s="3">
-        <v>84600</v>
+        <v>46800</v>
       </c>
       <c r="F48" s="3">
-        <v>203900</v>
+        <v>86600</v>
       </c>
       <c r="G48" s="3">
-        <v>64000</v>
+        <v>208900</v>
       </c>
       <c r="H48" s="3">
-        <v>9500</v>
+        <v>65500</v>
       </c>
       <c r="I48" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2021,32 +2128,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>88700</v>
+        <v>105300</v>
       </c>
       <c r="E49" s="3">
-        <v>3700</v>
+        <v>90800</v>
       </c>
       <c r="F49" s="3">
-        <v>40100</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2057,9 +2167,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,32 +2245,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>6400</v>
       </c>
       <c r="E52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2165,9 +2284,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,32 +2323,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1032500</v>
+        <v>1155100</v>
       </c>
       <c r="E54" s="3">
-        <v>213300</v>
+        <v>1057500</v>
       </c>
       <c r="F54" s="3">
-        <v>368900</v>
+        <v>218400</v>
       </c>
       <c r="G54" s="3">
-        <v>79700</v>
+        <v>377800</v>
       </c>
       <c r="H54" s="3">
-        <v>18600</v>
+        <v>81600</v>
       </c>
       <c r="I54" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2237,9 +2362,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,32 +2399,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30800</v>
+        <v>7200</v>
       </c>
       <c r="E57" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="F57" s="3">
-        <v>14600</v>
+        <v>3600</v>
       </c>
       <c r="G57" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="H57" s="3">
-        <v>3500</v>
+        <v>14300</v>
       </c>
       <c r="I57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,32 +2435,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>22400</v>
       </c>
       <c r="E58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>129200</v>
-      </c>
       <c r="G58" s="3">
-        <v>36400</v>
+        <v>132300</v>
       </c>
       <c r="H58" s="3">
-        <v>5100</v>
+        <v>37300</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2341,23 +2474,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40500</v>
+        <v>36600</v>
       </c>
       <c r="E59" s="3">
-        <v>13700</v>
+        <v>41500</v>
       </c>
       <c r="F59" s="3">
-        <v>50900</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>52100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2374,36 +2510,39 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47600</v>
+        <v>66200</v>
       </c>
       <c r="E60" s="3">
-        <v>17500</v>
+        <v>48800</v>
       </c>
       <c r="F60" s="3">
-        <v>194700</v>
+        <v>17900</v>
       </c>
       <c r="G60" s="3">
-        <v>50400</v>
+        <v>199400</v>
       </c>
       <c r="H60" s="3">
-        <v>8600</v>
+        <v>51600</v>
       </c>
       <c r="I60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,30 +2552,33 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20100</v>
+        <v>103400</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>20600</v>
       </c>
       <c r="F61" s="3">
-        <v>11700</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="H61" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2449,23 +2591,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2482,12 +2627,15 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,33 +2747,36 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71100</v>
+        <v>187300</v>
       </c>
       <c r="E66" s="3">
-        <v>21400</v>
+        <v>72900</v>
       </c>
       <c r="F66" s="3">
-        <v>212300</v>
+        <v>21900</v>
       </c>
       <c r="G66" s="3">
-        <v>85400</v>
+        <v>217400</v>
       </c>
       <c r="H66" s="3">
-        <v>8700</v>
+        <v>87500</v>
       </c>
       <c r="I66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2629,9 +2786,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,32 +2959,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-562000</v>
+        <v>-807200</v>
       </c>
       <c r="E72" s="3">
-        <v>-403900</v>
+        <v>-575600</v>
       </c>
       <c r="F72" s="3">
-        <v>-240500</v>
+        <v>-413600</v>
       </c>
       <c r="G72" s="3">
-        <v>-62000</v>
+        <v>-246300</v>
       </c>
       <c r="H72" s="3">
-        <v>-12000</v>
+        <v>-63500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2825,9 +2998,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,32 +3115,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>961400</v>
+        <v>967800</v>
       </c>
       <c r="E76" s="3">
-        <v>191800</v>
+        <v>984700</v>
       </c>
       <c r="F76" s="3">
-        <v>156600</v>
+        <v>196500</v>
       </c>
       <c r="G76" s="3">
-        <v>-5700</v>
+        <v>160400</v>
       </c>
       <c r="H76" s="3">
-        <v>9900</v>
+        <v>-5900</v>
       </c>
       <c r="I76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2969,9 +3154,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,38 +3193,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43159</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42794</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3046,33 +3237,36 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-166600</v>
+        <v>-248200</v>
       </c>
       <c r="E81" s="3">
-        <v>-168700</v>
+        <v>-168100</v>
       </c>
       <c r="F81" s="3">
-        <v>-196300</v>
+        <v>-172800</v>
       </c>
       <c r="G81" s="3">
-        <v>-40900</v>
+        <v>-201100</v>
       </c>
       <c r="H81" s="3">
-        <v>-9400</v>
+        <v>-41900</v>
       </c>
       <c r="I81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,9 +3276,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,32 +3296,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6900</v>
+        <v>35100</v>
       </c>
       <c r="E83" s="3">
-        <v>8400</v>
+        <v>7500</v>
       </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>8600</v>
       </c>
       <c r="G83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,9 +3332,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,33 +3527,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-112400</v>
+        <v>-5000</v>
       </c>
       <c r="E89" s="3">
-        <v>-41600</v>
+        <v>-115400</v>
       </c>
       <c r="F89" s="3">
-        <v>-81500</v>
+        <v>-42600</v>
       </c>
       <c r="G89" s="3">
-        <v>-18400</v>
+        <v>-83500</v>
       </c>
       <c r="H89" s="3">
-        <v>-3800</v>
+        <v>-18800</v>
       </c>
       <c r="I89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,9 +3566,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,32 +3586,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-7900</v>
       </c>
       <c r="E91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-99900</v>
-      </c>
       <c r="G91" s="3">
-        <v>-55200</v>
+        <v>-102300</v>
       </c>
       <c r="H91" s="3">
-        <v>-5500</v>
+        <v>-56500</v>
       </c>
       <c r="I91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,9 +3622,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,32 +3700,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-358900</v>
+        <v>-170500</v>
       </c>
       <c r="E94" s="3">
-        <v>-51300</v>
+        <v>-367600</v>
       </c>
       <c r="F94" s="3">
-        <v>-154200</v>
+        <v>-52500</v>
       </c>
       <c r="G94" s="3">
-        <v>-47800</v>
+        <v>-157900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7000</v>
+        <v>-48900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-7200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3510,9 +3739,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,32 +3912,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>831400</v>
+        <v>-31000</v>
       </c>
       <c r="E100" s="3">
-        <v>103200</v>
+        <v>851800</v>
       </c>
       <c r="F100" s="3">
-        <v>259100</v>
+        <v>105700</v>
       </c>
       <c r="G100" s="3">
-        <v>70800</v>
+        <v>265400</v>
       </c>
       <c r="H100" s="3">
-        <v>13700</v>
+        <v>72500</v>
       </c>
       <c r="I100" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3706,23 +3951,26 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3739,36 +3987,39 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>360100</v>
+        <v>-206400</v>
       </c>
       <c r="E102" s="3">
-        <v>10900</v>
+        <v>368800</v>
       </c>
       <c r="F102" s="3">
-        <v>22600</v>
+        <v>11100</v>
       </c>
       <c r="G102" s="3">
-        <v>4700</v>
+        <v>23100</v>
       </c>
       <c r="H102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3778,7 +4029,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>527600</v>
+        <v>527300</v>
       </c>
       <c r="E8" s="3">
         <v>41600</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>413400</v>
+        <v>413200</v>
       </c>
       <c r="E9" s="3">
         <v>37500</v>
@@ -803,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>114200</v>
+        <v>114100</v>
       </c>
       <c r="E10" s="3">
         <v>4100</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>151900</v>
+        <v>151800</v>
       </c>
       <c r="E14" s="3">
         <v>65700</v>
@@ -946,7 +946,7 @@
         <v>93000</v>
       </c>
       <c r="G14" s="3">
-        <v>102900</v>
+        <v>102800</v>
       </c>
       <c r="H14" s="3">
         <v>1300</v>
@@ -1029,16 +1029,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>798600</v>
+        <v>798200</v>
       </c>
       <c r="E17" s="3">
-        <v>163900</v>
+        <v>163800</v>
       </c>
       <c r="F17" s="3">
-        <v>185100</v>
+        <v>185000</v>
       </c>
       <c r="G17" s="3">
-        <v>136800</v>
+        <v>136700</v>
       </c>
       <c r="H17" s="3">
         <v>20500</v>
@@ -1068,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-271000</v>
+        <v>-270900</v>
       </c>
       <c r="E18" s="3">
-        <v>-122300</v>
+        <v>-122200</v>
       </c>
       <c r="F18" s="3">
-        <v>-140000</v>
+        <v>-139900</v>
       </c>
       <c r="G18" s="3">
         <v>-89700</v>
@@ -1169,7 +1169,7 @@
         <v>-165700</v>
       </c>
       <c r="F21" s="3">
-        <v>-137400</v>
+        <v>-137300</v>
       </c>
       <c r="G21" s="3">
         <v>-90600</v>
@@ -1241,19 +1241,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-281300</v>
+        <v>-281200</v>
       </c>
       <c r="E23" s="3">
-        <v>-173900</v>
+        <v>-173800</v>
       </c>
       <c r="F23" s="3">
-        <v>-152800</v>
+        <v>-152700</v>
       </c>
       <c r="G23" s="3">
-        <v>-108400</v>
+        <v>-108300</v>
       </c>
       <c r="H23" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I23" s="3">
         <v>-9600</v>
@@ -1358,19 +1358,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-275900</v>
+        <v>-275700</v>
       </c>
       <c r="E26" s="3">
-        <v>-168000</v>
+        <v>-167900</v>
       </c>
       <c r="F26" s="3">
-        <v>-152800</v>
+        <v>-152700</v>
       </c>
       <c r="G26" s="3">
-        <v>-105700</v>
+        <v>-105600</v>
       </c>
       <c r="H26" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I26" s="3">
         <v>-9600</v>
@@ -1397,19 +1397,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-248200</v>
+        <v>-248100</v>
       </c>
       <c r="E27" s="3">
-        <v>-168100</v>
+        <v>-168000</v>
       </c>
       <c r="F27" s="3">
-        <v>-147900</v>
+        <v>-147800</v>
       </c>
       <c r="G27" s="3">
-        <v>-105600</v>
+        <v>-105500</v>
       </c>
       <c r="H27" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I27" s="3">
         <v>-9600</v>
@@ -1631,19 +1631,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-248200</v>
+        <v>-248100</v>
       </c>
       <c r="E33" s="3">
-        <v>-168100</v>
+        <v>-168000</v>
       </c>
       <c r="F33" s="3">
-        <v>-172800</v>
+        <v>-172700</v>
       </c>
       <c r="G33" s="3">
-        <v>-201100</v>
+        <v>-201000</v>
       </c>
       <c r="H33" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I33" s="3">
         <v>-9600</v>
@@ -1709,19 +1709,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-248200</v>
+        <v>-248100</v>
       </c>
       <c r="E35" s="3">
-        <v>-168100</v>
+        <v>-168000</v>
       </c>
       <c r="F35" s="3">
-        <v>-172800</v>
+        <v>-172700</v>
       </c>
       <c r="G35" s="3">
-        <v>-201100</v>
+        <v>-201000</v>
       </c>
       <c r="H35" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I35" s="3">
         <v>-9600</v>
@@ -1826,10 +1826,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>207100</v>
+        <v>207000</v>
       </c>
       <c r="E41" s="3">
-        <v>413500</v>
+        <v>413300</v>
       </c>
       <c r="F41" s="3">
         <v>44700</v>
@@ -1985,7 +1985,7 @@
         <v>26500</v>
       </c>
       <c r="E45" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="F45" s="3">
         <v>9600</v>
@@ -2021,16 +2021,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>371500</v>
+        <v>371300</v>
       </c>
       <c r="E46" s="3">
-        <v>539400</v>
+        <v>539100</v>
       </c>
       <c r="F46" s="3">
-        <v>87700</v>
+        <v>87600</v>
       </c>
       <c r="G46" s="3">
-        <v>127900</v>
+        <v>127800</v>
       </c>
       <c r="H46" s="3">
         <v>16100</v>
@@ -2060,10 +2060,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>466400</v>
+        <v>466100</v>
       </c>
       <c r="E47" s="3">
-        <v>374800</v>
+        <v>374600</v>
       </c>
       <c r="F47" s="3">
         <v>38400</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>205600</v>
+        <v>205500</v>
       </c>
       <c r="E48" s="3">
         <v>46800</v>
@@ -2108,7 +2108,7 @@
         <v>86600</v>
       </c>
       <c r="G48" s="3">
-        <v>208900</v>
+        <v>208800</v>
       </c>
       <c r="H48" s="3">
         <v>65500</v>
@@ -2138,16 +2138,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105300</v>
+        <v>105200</v>
       </c>
       <c r="E49" s="3">
         <v>90800</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>41100</v>
+        <v>41000</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>5700</v>
       </c>
       <c r="F52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2333,16 +2333,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1155100</v>
+        <v>1154500</v>
       </c>
       <c r="E54" s="3">
-        <v>1057500</v>
+        <v>1057000</v>
       </c>
       <c r="F54" s="3">
-        <v>218400</v>
+        <v>218300</v>
       </c>
       <c r="G54" s="3">
-        <v>377800</v>
+        <v>377600</v>
       </c>
       <c r="H54" s="3">
         <v>81600</v>
@@ -2487,7 +2487,7 @@
         <v>36600</v>
       </c>
       <c r="E59" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="F59" s="3">
         <v>14000</v>
@@ -2532,7 +2532,7 @@
         <v>17900</v>
       </c>
       <c r="G60" s="3">
-        <v>199400</v>
+        <v>199300</v>
       </c>
       <c r="H60" s="3">
         <v>51600</v>
@@ -2757,19 +2757,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>187300</v>
+        <v>187200</v>
       </c>
       <c r="E66" s="3">
-        <v>72900</v>
+        <v>72800</v>
       </c>
       <c r="F66" s="3">
         <v>21900</v>
       </c>
       <c r="G66" s="3">
-        <v>217400</v>
+        <v>217300</v>
       </c>
       <c r="H66" s="3">
-        <v>87500</v>
+        <v>87400</v>
       </c>
       <c r="I66" s="3">
         <v>8900</v>
@@ -2969,16 +2969,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-807200</v>
+        <v>-806800</v>
       </c>
       <c r="E72" s="3">
-        <v>-575600</v>
+        <v>-575300</v>
       </c>
       <c r="F72" s="3">
-        <v>-413600</v>
+        <v>-413400</v>
       </c>
       <c r="G72" s="3">
-        <v>-246300</v>
+        <v>-246200</v>
       </c>
       <c r="H72" s="3">
         <v>-63500</v>
@@ -3125,16 +3125,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>967800</v>
+        <v>967300</v>
       </c>
       <c r="E76" s="3">
-        <v>984700</v>
+        <v>984200</v>
       </c>
       <c r="F76" s="3">
-        <v>196500</v>
+        <v>196400</v>
       </c>
       <c r="G76" s="3">
-        <v>160400</v>
+        <v>160300</v>
       </c>
       <c r="H76" s="3">
         <v>-5900</v>
@@ -3247,19 +3247,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-248200</v>
+        <v>-248100</v>
       </c>
       <c r="E81" s="3">
-        <v>-168100</v>
+        <v>-168000</v>
       </c>
       <c r="F81" s="3">
-        <v>-172800</v>
+        <v>-172700</v>
       </c>
       <c r="G81" s="3">
-        <v>-201100</v>
+        <v>-201000</v>
       </c>
       <c r="H81" s="3">
-        <v>-41900</v>
+        <v>-41800</v>
       </c>
       <c r="I81" s="3">
         <v>-9600</v>
@@ -3303,7 +3303,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35100</v>
+        <v>35000</v>
       </c>
       <c r="E83" s="3">
         <v>7500</v>
@@ -3540,7 +3540,7 @@
         <v>-5000</v>
       </c>
       <c r="E89" s="3">
-        <v>-115400</v>
+        <v>-115300</v>
       </c>
       <c r="F89" s="3">
         <v>-42600</v>
@@ -3710,16 +3710,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170500</v>
+        <v>-170400</v>
       </c>
       <c r="E94" s="3">
-        <v>-367600</v>
+        <v>-367400</v>
       </c>
       <c r="F94" s="3">
         <v>-52500</v>
       </c>
       <c r="G94" s="3">
-        <v>-157900</v>
+        <v>-157800</v>
       </c>
       <c r="H94" s="3">
         <v>-48900</v>
@@ -3922,16 +3922,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31000</v>
+        <v>-30900</v>
       </c>
       <c r="E100" s="3">
-        <v>851800</v>
+        <v>851400</v>
       </c>
       <c r="F100" s="3">
         <v>105700</v>
       </c>
       <c r="G100" s="3">
-        <v>265400</v>
+        <v>265200</v>
       </c>
       <c r="H100" s="3">
         <v>72500</v>
@@ -4000,10 +4000,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-206400</v>
+        <v>-206300</v>
       </c>
       <c r="E102" s="3">
-        <v>368800</v>
+        <v>368600</v>
       </c>
       <c r="F102" s="3">
         <v>11100</v>

--- a/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNDL_YR_FIN.xlsx
@@ -725,16 +725,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>527300</v>
+        <v>517800</v>
       </c>
       <c r="E8" s="3">
-        <v>41600</v>
+        <v>40800</v>
       </c>
       <c r="F8" s="3">
-        <v>45100</v>
+        <v>44300</v>
       </c>
       <c r="G8" s="3">
-        <v>47100</v>
+        <v>46200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -764,16 +764,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>413200</v>
+        <v>405700</v>
       </c>
       <c r="E9" s="3">
-        <v>37500</v>
+        <v>36800</v>
       </c>
       <c r="F9" s="3">
-        <v>38300</v>
+        <v>37600</v>
       </c>
       <c r="G9" s="3">
-        <v>34600</v>
+        <v>34000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -803,16 +803,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>114100</v>
+        <v>112000</v>
       </c>
       <c r="E10" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F10" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G10" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -937,16 +937,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>151800</v>
+        <v>149100</v>
       </c>
       <c r="E14" s="3">
-        <v>65700</v>
+        <v>64500</v>
       </c>
       <c r="F14" s="3">
-        <v>93000</v>
+        <v>91300</v>
       </c>
       <c r="G14" s="3">
-        <v>102800</v>
+        <v>100900</v>
       </c>
       <c r="H14" s="3">
         <v>1300</v>
@@ -976,13 +976,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30300</v>
+        <v>29800</v>
       </c>
       <c r="E15" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1029,22 +1029,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>798200</v>
+        <v>783800</v>
       </c>
       <c r="E17" s="3">
-        <v>163800</v>
+        <v>160800</v>
       </c>
       <c r="F17" s="3">
-        <v>185000</v>
+        <v>181700</v>
       </c>
       <c r="G17" s="3">
-        <v>136700</v>
+        <v>134200</v>
       </c>
       <c r="H17" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="I17" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
@@ -1068,16 +1068,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-270900</v>
+        <v>-266000</v>
       </c>
       <c r="E18" s="3">
-        <v>-122200</v>
+        <v>-120000</v>
       </c>
       <c r="F18" s="3">
-        <v>-139900</v>
+        <v>-137400</v>
       </c>
       <c r="G18" s="3">
-        <v>-89700</v>
+        <v>-88000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1124,16 +1124,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-51000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-241800</v>
+        <v>-237200</v>
       </c>
       <c r="E21" s="3">
-        <v>-165700</v>
+        <v>-162600</v>
       </c>
       <c r="F21" s="3">
-        <v>-137300</v>
+        <v>-134800</v>
       </c>
       <c r="G21" s="3">
-        <v>-90600</v>
+        <v>-88900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1202,19 +1202,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="H22" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1241,22 +1241,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-281200</v>
+        <v>-276100</v>
       </c>
       <c r="E23" s="3">
-        <v>-173800</v>
+        <v>-170600</v>
       </c>
       <c r="F23" s="3">
-        <v>-152700</v>
+        <v>-150000</v>
       </c>
       <c r="G23" s="3">
-        <v>-108300</v>
+        <v>-106400</v>
       </c>
       <c r="H23" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I23" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J23" s="3">
         <v>-1100</v>
@@ -1280,16 +1280,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E24" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1358,22 +1358,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-275700</v>
+        <v>-270800</v>
       </c>
       <c r="E26" s="3">
-        <v>-167900</v>
+        <v>-164900</v>
       </c>
       <c r="F26" s="3">
-        <v>-152700</v>
+        <v>-150000</v>
       </c>
       <c r="G26" s="3">
-        <v>-105600</v>
+        <v>-103700</v>
       </c>
       <c r="H26" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I26" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J26" s="3">
         <v>-1100</v>
@@ -1397,22 +1397,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-248100</v>
+        <v>-243600</v>
       </c>
       <c r="E27" s="3">
-        <v>-168000</v>
+        <v>-165000</v>
       </c>
       <c r="F27" s="3">
-        <v>-147800</v>
+        <v>-145100</v>
       </c>
       <c r="G27" s="3">
-        <v>-105500</v>
+        <v>-103600</v>
       </c>
       <c r="H27" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J27" s="3">
         <v>-1100</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-24900</v>
+        <v>-24400</v>
       </c>
       <c r="G29" s="3">
-        <v>-95500</v>
+        <v>-93700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1592,16 +1592,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="E32" s="3">
-        <v>51000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6000</v>
-      </c>
       <c r="G32" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1631,22 +1631,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-248100</v>
+        <v>-243600</v>
       </c>
       <c r="E33" s="3">
-        <v>-168000</v>
+        <v>-165000</v>
       </c>
       <c r="F33" s="3">
-        <v>-172700</v>
+        <v>-169600</v>
       </c>
       <c r="G33" s="3">
-        <v>-201000</v>
+        <v>-197400</v>
       </c>
       <c r="H33" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J33" s="3">
         <v>-1100</v>
@@ -1709,22 +1709,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-248100</v>
+        <v>-243600</v>
       </c>
       <c r="E35" s="3">
-        <v>-168000</v>
+        <v>-165000</v>
       </c>
       <c r="F35" s="3">
-        <v>-172700</v>
+        <v>-169600</v>
       </c>
       <c r="G35" s="3">
-        <v>-201000</v>
+        <v>-197400</v>
       </c>
       <c r="H35" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J35" s="3">
         <v>-1100</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>207000</v>
+        <v>203300</v>
       </c>
       <c r="E41" s="3">
-        <v>413300</v>
+        <v>405900</v>
       </c>
       <c r="F41" s="3">
-        <v>44700</v>
+        <v>43900</v>
       </c>
       <c r="G41" s="3">
-        <v>33600</v>
+        <v>33000</v>
       </c>
       <c r="H41" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I41" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J41" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="E42" s="3">
-        <v>67200</v>
+        <v>66000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1904,16 +1904,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="E43" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="F43" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="G43" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="H43" s="3">
         <v>2000</v>
@@ -1943,19 +1943,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>97200</v>
+        <v>95400</v>
       </c>
       <c r="E44" s="3">
-        <v>45200</v>
+        <v>44300</v>
       </c>
       <c r="F44" s="3">
-        <v>21600</v>
+        <v>21200</v>
       </c>
       <c r="G44" s="3">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="H44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -1982,16 +1982,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="G45" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="H45" s="3">
         <v>2000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>371300</v>
+        <v>364600</v>
       </c>
       <c r="E46" s="3">
-        <v>539100</v>
+        <v>529400</v>
       </c>
       <c r="F46" s="3">
-        <v>87600</v>
+        <v>86100</v>
       </c>
       <c r="G46" s="3">
-        <v>127800</v>
+        <v>125500</v>
       </c>
       <c r="H46" s="3">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="I46" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="J46" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2060,13 +2060,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>466100</v>
+        <v>457700</v>
       </c>
       <c r="E47" s="3">
-        <v>374600</v>
+        <v>367800</v>
       </c>
       <c r="F47" s="3">
-        <v>38400</v>
+        <v>37700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>205500</v>
+        <v>201800</v>
       </c>
       <c r="E48" s="3">
-        <v>46800</v>
+        <v>45900</v>
       </c>
       <c r="F48" s="3">
-        <v>86600</v>
+        <v>85000</v>
       </c>
       <c r="G48" s="3">
-        <v>208800</v>
+        <v>205000</v>
       </c>
       <c r="H48" s="3">
-        <v>65500</v>
+        <v>64300</v>
       </c>
       <c r="I48" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="J48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2138,16 +2138,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105200</v>
+        <v>103300</v>
       </c>
       <c r="E49" s="3">
-        <v>90800</v>
+        <v>89200</v>
       </c>
       <c r="F49" s="3">
         <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>41000</v>
+        <v>40300</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="E52" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1154500</v>
+        <v>1133700</v>
       </c>
       <c r="E54" s="3">
-        <v>1057000</v>
+        <v>1037900</v>
       </c>
       <c r="F54" s="3">
-        <v>218300</v>
+        <v>214400</v>
       </c>
       <c r="G54" s="3">
-        <v>377600</v>
+        <v>370800</v>
       </c>
       <c r="H54" s="3">
-        <v>81600</v>
+        <v>80100</v>
       </c>
       <c r="I54" s="3">
-        <v>19100</v>
+        <v>18700</v>
       </c>
       <c r="J54" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2406,19 +2406,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="H57" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="I57" s="3">
         <v>3600</v>
@@ -2445,22 +2445,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22400</v>
+        <v>22000</v>
       </c>
       <c r="E58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>132300</v>
+        <v>129900</v>
       </c>
       <c r="H58" s="3">
-        <v>37300</v>
+        <v>36600</v>
       </c>
       <c r="I58" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36600</v>
+        <v>35900</v>
       </c>
       <c r="E59" s="3">
-        <v>41400</v>
+        <v>40700</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="G59" s="3">
-        <v>52100</v>
+        <v>51200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2523,22 +2523,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="E60" s="3">
-        <v>48800</v>
+        <v>47900</v>
       </c>
       <c r="F60" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="G60" s="3">
-        <v>199300</v>
+        <v>195700</v>
       </c>
       <c r="H60" s="3">
-        <v>51600</v>
+        <v>50600</v>
       </c>
       <c r="I60" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -2562,19 +2562,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>103400</v>
+        <v>101500</v>
       </c>
       <c r="E61" s="3">
-        <v>20600</v>
+        <v>20200</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="H61" s="3">
-        <v>35900</v>
+        <v>35200</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2757,22 +2757,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>187200</v>
+        <v>183800</v>
       </c>
       <c r="E66" s="3">
-        <v>72800</v>
+        <v>71500</v>
       </c>
       <c r="F66" s="3">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="G66" s="3">
-        <v>217300</v>
+        <v>213400</v>
       </c>
       <c r="H66" s="3">
-        <v>87400</v>
+        <v>85900</v>
       </c>
       <c r="I66" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-806800</v>
+        <v>-792300</v>
       </c>
       <c r="E72" s="3">
-        <v>-575300</v>
+        <v>-564900</v>
       </c>
       <c r="F72" s="3">
-        <v>-413400</v>
+        <v>-406000</v>
       </c>
       <c r="G72" s="3">
-        <v>-246200</v>
+        <v>-241700</v>
       </c>
       <c r="H72" s="3">
-        <v>-63500</v>
+        <v>-62400</v>
       </c>
       <c r="I72" s="3">
-        <v>-12300</v>
+        <v>-12100</v>
       </c>
       <c r="J72" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>967300</v>
+        <v>949800</v>
       </c>
       <c r="E76" s="3">
-        <v>984200</v>
+        <v>966400</v>
       </c>
       <c r="F76" s="3">
-        <v>196400</v>
+        <v>192800</v>
       </c>
       <c r="G76" s="3">
-        <v>160300</v>
+        <v>157400</v>
       </c>
       <c r="H76" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I76" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="J76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3247,22 +3247,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-248100</v>
+        <v>-243600</v>
       </c>
       <c r="E81" s="3">
-        <v>-168000</v>
+        <v>-165000</v>
       </c>
       <c r="F81" s="3">
-        <v>-172700</v>
+        <v>-169600</v>
       </c>
       <c r="G81" s="3">
-        <v>-201000</v>
+        <v>-197400</v>
       </c>
       <c r="H81" s="3">
-        <v>-41800</v>
+        <v>-41100</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="J81" s="3">
         <v>-1100</v>
@@ -3303,16 +3303,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35000</v>
+        <v>34400</v>
       </c>
       <c r="E83" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F83" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G83" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -3537,22 +3537,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E89" s="3">
-        <v>-115300</v>
+        <v>-113200</v>
       </c>
       <c r="F89" s="3">
-        <v>-42600</v>
+        <v>-41800</v>
       </c>
       <c r="G89" s="3">
-        <v>-83500</v>
+        <v>-82000</v>
       </c>
       <c r="H89" s="3">
-        <v>-18800</v>
+        <v>-18500</v>
       </c>
       <c r="I89" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="J89" s="3">
         <v>-1000</v>
@@ -3593,7 +3593,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E91" s="3">
         <v>-2800</v>
@@ -3602,13 +3602,13 @@
         <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-102300</v>
+        <v>-100400</v>
       </c>
       <c r="H91" s="3">
-        <v>-56500</v>
+        <v>-55500</v>
       </c>
       <c r="I91" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J91" s="3">
         <v>-3500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170400</v>
+        <v>-167300</v>
       </c>
       <c r="E94" s="3">
-        <v>-367400</v>
+        <v>-360800</v>
       </c>
       <c r="F94" s="3">
-        <v>-52500</v>
+        <v>-51500</v>
       </c>
       <c r="G94" s="3">
-        <v>-157800</v>
+        <v>-155000</v>
       </c>
       <c r="H94" s="3">
-        <v>-48900</v>
+        <v>-48000</v>
       </c>
       <c r="I94" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30900</v>
+        <v>-30400</v>
       </c>
       <c r="E100" s="3">
-        <v>851400</v>
+        <v>836000</v>
       </c>
       <c r="F100" s="3">
-        <v>105700</v>
+        <v>103800</v>
       </c>
       <c r="G100" s="3">
-        <v>265200</v>
+        <v>260500</v>
       </c>
       <c r="H100" s="3">
-        <v>72500</v>
+        <v>71200</v>
       </c>
       <c r="I100" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="J100" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4000,19 +4000,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-206300</v>
+        <v>-202600</v>
       </c>
       <c r="E102" s="3">
-        <v>368600</v>
+        <v>362000</v>
       </c>
       <c r="F102" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
-        <v>23100</v>
+        <v>22700</v>
       </c>
       <c r="H102" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I102" s="3">
         <v>2900</v>
